--- a/H.Oferta hotelera en Madrid por Mes.xlsx
+++ b/H.Oferta hotelera en Madrid por Mes.xlsx
@@ -19,58 +19,58 @@
     <t>Mes</t>
   </si>
   <si>
-    <t>Nº Establecimientos abiertos</t>
+    <t># Hotels</t>
   </si>
   <si>
-    <t>Nº Plazas estimadas</t>
+    <t>H Capacity</t>
   </si>
   <si>
-    <t>ocupacion por habitaciones (%)</t>
+    <t>H Occupancy per Rooms</t>
   </si>
   <si>
-    <t>ocupacion por plazas (%)</t>
+    <t>H Occupancy per Capacity</t>
   </si>
   <si>
-    <t>ocupacion por plazas fines de semana (%)</t>
+    <t>H Occupancy per Capacity during Weekends</t>
   </si>
   <si>
-    <t>Nº Personas empleadas</t>
+    <t>H Staff</t>
   </si>
   <si>
-    <t>Enero</t>
+    <t>January</t>
   </si>
   <si>
-    <t>Febrero</t>
+    <t>February</t>
   </si>
   <si>
-    <t>Marzo</t>
+    <t>March</t>
   </si>
   <si>
-    <t>Abril</t>
+    <t>April</t>
   </si>
   <si>
-    <t>Mayo</t>
+    <t>May</t>
   </si>
   <si>
-    <t>Junio</t>
+    <t>June</t>
   </si>
   <si>
-    <t>Julio</t>
+    <t>July</t>
   </si>
   <si>
-    <t>Agosto</t>
+    <t>August</t>
   </si>
   <si>
-    <t>Septiembre</t>
+    <t>September</t>
   </si>
   <si>
-    <t>Octubre</t>
+    <t>October</t>
   </si>
   <si>
-    <t>Noviembre</t>
+    <t>November</t>
   </si>
   <si>
-    <t>Diciembre</t>
+    <t>December</t>
   </si>
 </sst>
 </file>
@@ -114,7 +114,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border/>
     <border>
       <right style="thin">
@@ -139,6 +139,20 @@
       </bottom>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FFDDDDDD"/>
       </right>
@@ -158,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -177,31 +191,28 @@
     <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="2" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="3" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="2" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="3" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -427,10 +438,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -442,7 +453,7 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="3"/>
@@ -512,25 +523,25 @@
       <c r="A3" s="4">
         <v>1999.0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>1044.0</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>52985.0</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>64.9</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>49.88</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>55.39</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>8711.0</v>
       </c>
       <c r="I3" s="3"/>
@@ -556,7 +567,7 @@
       <c r="A4" s="4">
         <v>1999.0</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="6">
@@ -600,25 +611,25 @@
       <c r="A5" s="4">
         <v>1999.0</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>1031.0</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>54641.0</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>71.63</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>58.52</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>64.63</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>8980.0</v>
       </c>
       <c r="I5" s="3"/>
@@ -644,7 +655,7 @@
       <c r="A6" s="4">
         <v>1999.0</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="6">
@@ -688,25 +699,25 @@
       <c r="A7" s="4">
         <v>1999.0</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>1027.0</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>53894.0</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>70.34</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>56.07</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <v>60.12</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>8542.0</v>
       </c>
       <c r="I7" s="3"/>
@@ -732,7 +743,7 @@
       <c r="A8" s="4">
         <v>1999.0</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="6">
@@ -776,25 +787,25 @@
       <c r="A9" s="4">
         <v>1999.0</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>1026.0</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>51339.0</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>52.41</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>46.69</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <v>50.07</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>7435.0</v>
       </c>
       <c r="I9" s="3"/>
@@ -820,7 +831,7 @@
       <c r="A10" s="4">
         <v>1999.0</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="6">
@@ -864,25 +875,25 @@
       <c r="A11" s="4">
         <v>1999.0</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>1025.0</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>53830.0</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <v>76.99</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>61.48</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <v>65.67</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <v>8100.0</v>
       </c>
       <c r="I11" s="3"/>
@@ -908,7 +919,7 @@
       <c r="A12" s="4">
         <v>1999.0</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="6">
@@ -952,25 +963,25 @@
       <c r="A13" s="4">
         <v>1999.0</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>1025.0</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>54249.0</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <v>54.87</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <v>44.37</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="9">
         <v>45.63</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <v>8561.0</v>
       </c>
       <c r="I13" s="3"/>
@@ -993,28 +1004,28 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <v>2000.0</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>1024.0</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>53522.0</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="9">
         <v>61.13</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>47.01</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <v>50.34</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <v>8598.0</v>
       </c>
       <c r="I14" s="3"/>
@@ -1037,10 +1048,10 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <v>2000.0</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="6">
@@ -1081,28 +1092,28 @@
       <c r="Z15" s="3"/>
     </row>
     <row r="16">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <v>2000.0</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>1031.0</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>54576.0</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="9">
         <v>72.64</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <v>57.75</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="9">
         <v>62.5</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="8">
         <v>8841.0</v>
       </c>
       <c r="I16" s="3"/>
@@ -1125,10 +1136,10 @@
       <c r="Z16" s="3"/>
     </row>
     <row r="17">
-      <c r="A17" s="11">
+      <c r="A17" s="10">
         <v>2000.0</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="6">
@@ -1169,28 +1180,28 @@
       <c r="Z17" s="3"/>
     </row>
     <row r="18">
-      <c r="A18" s="11">
+      <c r="A18" s="10">
         <v>2000.0</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>1035.0</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>54940.0</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="9">
         <v>76.93</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="9">
         <v>61.71</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="9">
         <v>68.48</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="8">
         <v>8940.0</v>
       </c>
       <c r="I18" s="3"/>
@@ -1213,10 +1224,10 @@
       <c r="Z18" s="3"/>
     </row>
     <row r="19">
-      <c r="A19" s="11">
+      <c r="A19" s="10">
         <v>2000.0</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="6">
@@ -1257,28 +1268,28 @@
       <c r="Z19" s="3"/>
     </row>
     <row r="20">
-      <c r="A20" s="11">
+      <c r="A20" s="10">
         <v>2000.0</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>1035.0</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>54569.0</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="9">
         <v>63.43</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="9">
         <v>52.67</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="9">
         <v>55.13</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="8">
         <v>8726.0</v>
       </c>
       <c r="I20" s="3"/>
@@ -1301,10 +1312,10 @@
       <c r="Z20" s="3"/>
     </row>
     <row r="21">
-      <c r="A21" s="11">
+      <c r="A21" s="10">
         <v>2000.0</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="6">
@@ -1345,28 +1356,28 @@
       <c r="Z21" s="3"/>
     </row>
     <row r="22">
-      <c r="A22" s="11">
+      <c r="A22" s="10">
         <v>2000.0</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>1034.0</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <v>54948.0</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="9">
         <v>77.69</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="9">
         <v>63.2</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="9">
         <v>66.31</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="8">
         <v>8977.0</v>
       </c>
       <c r="I22" s="3"/>
@@ -1389,10 +1400,10 @@
       <c r="Z22" s="3"/>
     </row>
     <row r="23">
-      <c r="A23" s="11">
+      <c r="A23" s="10">
         <v>2000.0</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="6">
@@ -1433,28 +1444,28 @@
       <c r="Z23" s="3"/>
     </row>
     <row r="24">
-      <c r="A24" s="11">
+      <c r="A24" s="10">
         <v>2000.0</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <v>1034.0</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>55003.0</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="9">
         <v>73.81</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="9">
         <v>56.65</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="9">
         <v>63.43</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="8">
         <v>9050.0</v>
       </c>
       <c r="I24" s="3"/>
@@ -1477,10 +1488,10 @@
       <c r="Z24" s="3"/>
     </row>
     <row r="25">
-      <c r="A25" s="11">
+      <c r="A25" s="10">
         <v>2000.0</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C25" s="6">
@@ -1524,7 +1535,7 @@
       <c r="A26" s="4">
         <v>2001.0</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="6">
@@ -1568,25 +1579,25 @@
       <c r="A27" s="4">
         <v>2001.0</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="8">
         <v>1032.0</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <v>55003.0</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="9">
         <v>69.17</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="9">
         <v>53.16</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="9">
         <v>59.98</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="8">
         <v>9091.0</v>
       </c>
       <c r="I27" s="3"/>
@@ -1612,7 +1623,7 @@
       <c r="A28" s="4">
         <v>2001.0</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
@@ -1656,25 +1667,25 @@
       <c r="A29" s="4">
         <v>2001.0</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="9">
         <v>971.0</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="8">
         <v>54131.0</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="9">
         <v>73.69</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="9">
         <v>60.64</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="9">
         <v>67.79</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="8">
         <v>9048.0</v>
       </c>
       <c r="I29" s="3"/>
@@ -1700,7 +1711,7 @@
       <c r="A30" s="4">
         <v>2001.0</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="7">
@@ -1744,25 +1755,25 @@
       <c r="A31" s="4">
         <v>2001.0</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="9">
         <v>971.0</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="8">
         <v>53662.0</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="9">
         <v>77.45</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="9">
         <v>61.98</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="9">
         <v>64.6</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="8">
         <v>9130.0</v>
       </c>
       <c r="I31" s="3"/>
@@ -1788,7 +1799,7 @@
       <c r="A32" s="4">
         <v>2001.0</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C32" s="7">
@@ -1832,25 +1843,25 @@
       <c r="A33" s="4">
         <v>2001.0</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="9">
         <v>954.0</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="8">
         <v>51225.0</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="9">
         <v>54.41</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="9">
         <v>48.25</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="9">
         <v>51.55</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="8">
         <v>8548.0</v>
       </c>
       <c r="I33" s="3"/>
@@ -1876,7 +1887,7 @@
       <c r="A34" s="4">
         <v>2001.0</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C34" s="7">
@@ -1920,25 +1931,25 @@
       <c r="A35" s="4">
         <v>2001.0</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="9">
         <v>954.0</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="8">
         <v>54213.0</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="9">
         <v>70.02</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="9">
         <v>54.97</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="9">
         <v>63.35</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="8">
         <v>9293.0</v>
       </c>
       <c r="I35" s="3"/>
@@ -1964,7 +1975,7 @@
       <c r="A36" s="4">
         <v>2001.0</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C36" s="7">
@@ -2008,25 +2019,25 @@
       <c r="A37" s="4">
         <v>2001.0</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="9">
         <v>958.0</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="8">
         <v>55034.0</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="9">
         <v>54.35</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="9">
         <v>44.58</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G37" s="9">
         <v>52.89</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="8">
         <v>9008.0</v>
       </c>
       <c r="I37" s="3"/>
@@ -2049,28 +2060,28 @@
       <c r="Z37" s="3"/>
     </row>
     <row r="38">
-      <c r="A38" s="11">
+      <c r="A38" s="10">
         <v>2002.0</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="9">
         <v>941.0</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="8">
         <v>54935.0</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="9">
         <v>57.59</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="9">
         <v>44.51</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="9">
         <v>49.26</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H38" s="8">
         <v>9174.0</v>
       </c>
       <c r="I38" s="3"/>
@@ -2093,10 +2104,10 @@
       <c r="Z38" s="3"/>
     </row>
     <row r="39">
-      <c r="A39" s="11">
+      <c r="A39" s="10">
         <v>2002.0</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C39" s="7">
@@ -2137,28 +2148,28 @@
       <c r="Z39" s="3"/>
     </row>
     <row r="40">
-      <c r="A40" s="11">
+      <c r="A40" s="10">
         <v>2002.0</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="9">
         <v>887.0</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="8">
         <v>54113.0</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="9">
         <v>66.11</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="9">
         <v>54.56</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="9">
         <v>65.89</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H40" s="8">
         <v>9336.0</v>
       </c>
       <c r="I40" s="3"/>
@@ -2181,10 +2192,10 @@
       <c r="Z40" s="3"/>
     </row>
     <row r="41">
-      <c r="A41" s="11">
+      <c r="A41" s="10">
         <v>2002.0</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="7">
@@ -2225,28 +2236,28 @@
       <c r="Z41" s="3"/>
     </row>
     <row r="42">
-      <c r="A42" s="11">
+      <c r="A42" s="10">
         <v>2002.0</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="9">
         <v>926.0</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="8">
         <v>55035.0</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E42" s="9">
         <v>71.64</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F42" s="9">
         <v>58.42</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G42" s="9">
         <v>66.59</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H42" s="8">
         <v>9580.0</v>
       </c>
       <c r="I42" s="3"/>
@@ -2269,10 +2280,10 @@
       <c r="Z42" s="3"/>
     </row>
     <row r="43">
-      <c r="A43" s="11">
+      <c r="A43" s="10">
         <v>2002.0</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="7">
@@ -2313,28 +2324,28 @@
       <c r="Z43" s="3"/>
     </row>
     <row r="44">
-      <c r="A44" s="11">
+      <c r="A44" s="10">
         <v>2002.0</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="9">
         <v>891.0</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="8">
         <v>54913.0</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E44" s="9">
         <v>60.26</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F44" s="9">
         <v>51.24</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G44" s="9">
         <v>56.83</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H44" s="8">
         <v>9254.0</v>
       </c>
       <c r="I44" s="3"/>
@@ -2357,10 +2368,10 @@
       <c r="Z44" s="3"/>
     </row>
     <row r="45">
-      <c r="A45" s="11">
+      <c r="A45" s="10">
         <v>2002.0</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C45" s="7">
@@ -2401,28 +2412,28 @@
       <c r="Z45" s="3"/>
     </row>
     <row r="46">
-      <c r="A46" s="11">
+      <c r="A46" s="10">
         <v>2002.0</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="9">
         <v>897.0</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="8">
         <v>55109.0</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E46" s="9">
         <v>72.88</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F46" s="9">
         <v>60.25</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G46" s="9">
         <v>70.53</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H46" s="8">
         <v>9438.0</v>
       </c>
       <c r="I46" s="3"/>
@@ -2445,10 +2456,10 @@
       <c r="Z46" s="3"/>
     </row>
     <row r="47">
-      <c r="A47" s="11">
+      <c r="A47" s="10">
         <v>2002.0</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="7">
@@ -2489,28 +2500,28 @@
       <c r="Z47" s="3"/>
     </row>
     <row r="48">
-      <c r="A48" s="11">
+      <c r="A48" s="10">
         <v>2002.0</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="9">
         <v>913.0</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="8">
         <v>55083.0</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="9">
         <v>69.38</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F48" s="9">
         <v>54.69</v>
       </c>
-      <c r="G48" s="10">
+      <c r="G48" s="9">
         <v>64.51</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H48" s="8">
         <v>9317.0</v>
       </c>
       <c r="I48" s="3"/>
@@ -2533,10 +2544,10 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49">
-      <c r="A49" s="11">
+      <c r="A49" s="10">
         <v>2002.0</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C49" s="7">
@@ -2580,7 +2591,7 @@
       <c r="A50" s="4">
         <v>2003.0</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="7">
@@ -2624,25 +2635,25 @@
       <c r="A51" s="4">
         <v>2003.0</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="9">
         <v>866.0</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="8">
         <v>54929.0</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="9">
         <v>63.47</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F51" s="9">
         <v>50.12</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G51" s="9">
         <v>59.69</v>
       </c>
-      <c r="H51" s="9">
+      <c r="H51" s="8">
         <v>9221.0</v>
       </c>
       <c r="I51" s="3"/>
@@ -2668,7 +2679,7 @@
       <c r="A52" s="4">
         <v>2003.0</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C52" s="7">
@@ -2712,25 +2723,25 @@
       <c r="A53" s="4">
         <v>2003.0</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C53" s="9">
         <v>879.0</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="8">
         <v>55108.0</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E53" s="9">
         <v>65.05</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F53" s="9">
         <v>54.19</v>
       </c>
-      <c r="G53" s="10">
+      <c r="G53" s="9">
         <v>65.78</v>
       </c>
-      <c r="H53" s="9">
+      <c r="H53" s="8">
         <v>9201.0</v>
       </c>
       <c r="I53" s="3"/>
@@ -2756,7 +2767,7 @@
       <c r="A54" s="4">
         <v>2003.0</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C54" s="7">
@@ -2800,25 +2811,25 @@
       <c r="A55" s="4">
         <v>2003.0</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C55" s="9">
         <v>840.0</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="8">
         <v>54853.0</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E55" s="9">
         <v>68.43</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F55" s="9">
         <v>54.91</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G55" s="9">
         <v>61.83</v>
       </c>
-      <c r="H55" s="9">
+      <c r="H55" s="8">
         <v>9172.0</v>
       </c>
       <c r="I55" s="3"/>
@@ -2844,7 +2855,7 @@
       <c r="A56" s="4">
         <v>2003.0</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C56" s="7">
@@ -2888,25 +2899,25 @@
       <c r="A57" s="4">
         <v>2003.0</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C57" s="9">
         <v>717.0</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="8">
         <v>52768.0</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E57" s="9">
         <v>52.43</v>
       </c>
-      <c r="F57" s="10">
+      <c r="F57" s="9">
         <v>47.13</v>
       </c>
-      <c r="G57" s="10">
+      <c r="G57" s="9">
         <v>52.36</v>
       </c>
-      <c r="H57" s="9">
+      <c r="H57" s="8">
         <v>8641.0</v>
       </c>
       <c r="I57" s="3"/>
@@ -2932,7 +2943,7 @@
       <c r="A58" s="4">
         <v>2003.0</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C58" s="7">
@@ -2976,25 +2987,25 @@
       <c r="A59" s="4">
         <v>2003.0</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="10">
+      <c r="C59" s="9">
         <v>809.0</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59" s="8">
         <v>54752.0</v>
       </c>
-      <c r="E59" s="10">
+      <c r="E59" s="9">
         <v>72.44</v>
       </c>
-      <c r="F59" s="10">
+      <c r="F59" s="9">
         <v>58.59</v>
       </c>
-      <c r="G59" s="10">
+      <c r="G59" s="9">
         <v>66.32</v>
       </c>
-      <c r="H59" s="9">
+      <c r="H59" s="8">
         <v>9206.0</v>
       </c>
       <c r="I59" s="3"/>
@@ -3020,7 +3031,7 @@
       <c r="A60" s="4">
         <v>2003.0</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C60" s="7">
@@ -3064,25 +3075,25 @@
       <c r="A61" s="4">
         <v>2003.0</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C61" s="10">
+      <c r="C61" s="9">
         <v>815.0</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D61" s="8">
         <v>57500.0</v>
       </c>
-      <c r="E61" s="10">
+      <c r="E61" s="9">
         <v>52.19</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F61" s="9">
         <v>44.42</v>
       </c>
-      <c r="G61" s="10">
+      <c r="G61" s="9">
         <v>53.49</v>
       </c>
-      <c r="H61" s="9">
+      <c r="H61" s="8">
         <v>9364.0</v>
       </c>
       <c r="I61" s="3"/>
@@ -3105,28 +3116,28 @@
       <c r="Z61" s="3"/>
     </row>
     <row r="62">
-      <c r="A62" s="11">
+      <c r="A62" s="10">
         <v>2004.0</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="10">
+      <c r="C62" s="9">
         <v>765.0</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D62" s="8">
         <v>56665.0</v>
       </c>
-      <c r="E62" s="10">
+      <c r="E62" s="9">
         <v>55.57</v>
       </c>
-      <c r="F62" s="10">
+      <c r="F62" s="9">
         <v>44.46</v>
       </c>
-      <c r="G62" s="10">
+      <c r="G62" s="9">
         <v>54.53</v>
       </c>
-      <c r="H62" s="9">
+      <c r="H62" s="8">
         <v>9434.0</v>
       </c>
       <c r="I62" s="3"/>
@@ -3149,10 +3160,10 @@
       <c r="Z62" s="3"/>
     </row>
     <row r="63">
-      <c r="A63" s="11">
+      <c r="A63" s="10">
         <v>2004.0</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C63" s="7">
@@ -3193,28 +3204,28 @@
       <c r="Z63" s="3"/>
     </row>
     <row r="64">
-      <c r="A64" s="11">
+      <c r="A64" s="10">
         <v>2004.0</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C64" s="10">
+      <c r="C64" s="9">
         <v>813.0</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D64" s="8">
         <v>60154.0</v>
       </c>
-      <c r="E64" s="10">
+      <c r="E64" s="9">
         <v>62.44</v>
       </c>
-      <c r="F64" s="10">
+      <c r="F64" s="9">
         <v>49.37</v>
       </c>
-      <c r="G64" s="10">
+      <c r="G64" s="9">
         <v>57.69</v>
       </c>
-      <c r="H64" s="9">
+      <c r="H64" s="8">
         <v>9961.0</v>
       </c>
       <c r="I64" s="3"/>
@@ -3237,10 +3248,10 @@
       <c r="Z64" s="3"/>
     </row>
     <row r="65">
-      <c r="A65" s="11">
+      <c r="A65" s="10">
         <v>2004.0</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C65" s="7">
@@ -3281,28 +3292,28 @@
       <c r="Z65" s="3"/>
     </row>
     <row r="66">
-      <c r="A66" s="11">
+      <c r="A66" s="10">
         <v>2004.0</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="10">
+      <c r="C66" s="9">
         <v>815.0</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D66" s="8">
         <v>61979.0</v>
       </c>
-      <c r="E66" s="10">
+      <c r="E66" s="9">
         <v>68.33</v>
       </c>
-      <c r="F66" s="10">
+      <c r="F66" s="9">
         <v>54.46</v>
       </c>
-      <c r="G66" s="10">
+      <c r="G66" s="9">
         <v>62.95</v>
       </c>
-      <c r="H66" s="9">
+      <c r="H66" s="8">
         <v>10366.0</v>
       </c>
       <c r="I66" s="3"/>
@@ -3325,10 +3336,10 @@
       <c r="Z66" s="3"/>
     </row>
     <row r="67">
-      <c r="A67" s="11">
+      <c r="A67" s="10">
         <v>2004.0</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C67" s="7">
@@ -3369,28 +3380,28 @@
       <c r="Z67" s="3"/>
     </row>
     <row r="68">
-      <c r="A68" s="11">
+      <c r="A68" s="10">
         <v>2004.0</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C68" s="10">
+      <c r="C68" s="9">
         <v>799.0</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D68" s="8">
         <v>61173.0</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E68" s="9">
         <v>53.73</v>
       </c>
-      <c r="F68" s="10">
+      <c r="F68" s="9">
         <v>45.36</v>
       </c>
-      <c r="G68" s="10">
+      <c r="G68" s="9">
         <v>50.73</v>
       </c>
-      <c r="H68" s="9">
+      <c r="H68" s="8">
         <v>10133.0</v>
       </c>
       <c r="I68" s="3"/>
@@ -3413,10 +3424,10 @@
       <c r="Z68" s="3"/>
     </row>
     <row r="69">
-      <c r="A69" s="11">
+      <c r="A69" s="10">
         <v>2004.0</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C69" s="7">
@@ -3457,28 +3468,28 @@
       <c r="Z69" s="3"/>
     </row>
     <row r="70">
-      <c r="A70" s="11">
+      <c r="A70" s="10">
         <v>2004.0</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C70" s="10">
+      <c r="C70" s="9">
         <v>810.0</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D70" s="8">
         <v>61158.0</v>
       </c>
-      <c r="E70" s="10">
+      <c r="E70" s="9">
         <v>70.23</v>
       </c>
-      <c r="F70" s="10">
+      <c r="F70" s="9">
         <v>57.06</v>
       </c>
-      <c r="G70" s="10">
+      <c r="G70" s="9">
         <v>66.51</v>
       </c>
-      <c r="H70" s="9">
+      <c r="H70" s="8">
         <v>10377.0</v>
       </c>
       <c r="I70" s="3"/>
@@ -3501,10 +3512,10 @@
       <c r="Z70" s="3"/>
     </row>
     <row r="71">
-      <c r="A71" s="11">
+      <c r="A71" s="10">
         <v>2004.0</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C71" s="7">
@@ -3545,28 +3556,28 @@
       <c r="Z71" s="3"/>
     </row>
     <row r="72">
-      <c r="A72" s="11">
+      <c r="A72" s="10">
         <v>2004.0</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C72" s="10">
+      <c r="C72" s="9">
         <v>813.0</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D72" s="8">
         <v>60922.0</v>
       </c>
-      <c r="E72" s="10">
+      <c r="E72" s="9">
         <v>67.73</v>
       </c>
-      <c r="F72" s="10">
+      <c r="F72" s="9">
         <v>53.32</v>
       </c>
-      <c r="G72" s="10">
+      <c r="G72" s="9">
         <v>62.04</v>
       </c>
-      <c r="H72" s="9">
+      <c r="H72" s="8">
         <v>10279.0</v>
       </c>
       <c r="I72" s="3"/>
@@ -3589,10 +3600,10 @@
       <c r="Z72" s="3"/>
     </row>
     <row r="73">
-      <c r="A73" s="11">
+      <c r="A73" s="10">
         <v>2004.0</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C73" s="7">
@@ -3636,7 +3647,7 @@
       <c r="A74" s="4">
         <v>2005.0</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="7">
@@ -3680,25 +3691,25 @@
       <c r="A75" s="4">
         <v>2005.0</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C75" s="10">
+      <c r="C75" s="9">
         <v>805.0</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D75" s="8">
         <v>60951.0</v>
       </c>
-      <c r="E75" s="10">
+      <c r="E75" s="9">
         <v>67.39</v>
       </c>
-      <c r="F75" s="10">
+      <c r="F75" s="9">
         <v>53.37</v>
       </c>
-      <c r="G75" s="10">
+      <c r="G75" s="9">
         <v>62.91</v>
       </c>
-      <c r="H75" s="9">
+      <c r="H75" s="8">
         <v>10252.0</v>
       </c>
       <c r="I75" s="3"/>
@@ -3724,7 +3735,7 @@
       <c r="A76" s="4">
         <v>2005.0</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C76" s="7">
@@ -3768,25 +3779,25 @@
       <c r="A77" s="4">
         <v>2005.0</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C77" s="10">
+      <c r="C77" s="9">
         <v>847.0</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D77" s="8">
         <v>61692.0</v>
       </c>
-      <c r="E77" s="10">
+      <c r="E77" s="9">
         <v>70.01</v>
       </c>
-      <c r="F77" s="10">
+      <c r="F77" s="9">
         <v>56.17</v>
       </c>
-      <c r="G77" s="10">
+      <c r="G77" s="9">
         <v>65.93</v>
       </c>
-      <c r="H77" s="9">
+      <c r="H77" s="8">
         <v>10479.0</v>
       </c>
       <c r="I77" s="3"/>
@@ -3812,7 +3823,7 @@
       <c r="A78" s="4">
         <v>2005.0</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C78" s="7">
@@ -3856,25 +3867,25 @@
       <c r="A79" s="4">
         <v>2005.0</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C79" s="10">
+      <c r="C79" s="9">
         <v>862.0</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D79" s="8">
         <v>63762.0</v>
       </c>
-      <c r="E79" s="10">
+      <c r="E79" s="9">
         <v>69.35</v>
       </c>
-      <c r="F79" s="10">
+      <c r="F79" s="9">
         <v>56.36</v>
       </c>
-      <c r="G79" s="10">
+      <c r="G79" s="9">
         <v>66.19</v>
       </c>
-      <c r="H79" s="9">
+      <c r="H79" s="8">
         <v>10994.0</v>
       </c>
       <c r="I79" s="3"/>
@@ -3900,7 +3911,7 @@
       <c r="A80" s="4">
         <v>2005.0</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C80" s="7">
@@ -3944,25 +3955,25 @@
       <c r="A81" s="4">
         <v>2005.0</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C81" s="10">
+      <c r="C81" s="9">
         <v>723.0</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D81" s="8">
         <v>60598.0</v>
       </c>
-      <c r="E81" s="10">
+      <c r="E81" s="9">
         <v>52.31</v>
       </c>
-      <c r="F81" s="10">
+      <c r="F81" s="9">
         <v>47.5</v>
       </c>
-      <c r="G81" s="10">
+      <c r="G81" s="9">
         <v>52.78</v>
       </c>
-      <c r="H81" s="9">
+      <c r="H81" s="8">
         <v>10145.0</v>
       </c>
       <c r="I81" s="3"/>
@@ -3988,7 +3999,7 @@
       <c r="A82" s="4">
         <v>2005.0</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C82" s="7">
@@ -4032,25 +4043,25 @@
       <c r="A83" s="4">
         <v>2005.0</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C83" s="10">
+      <c r="C83" s="9">
         <v>834.0</v>
       </c>
-      <c r="D83" s="9">
+      <c r="D83" s="8">
         <v>64110.0</v>
       </c>
-      <c r="E83" s="10">
+      <c r="E83" s="9">
         <v>78.58</v>
       </c>
-      <c r="F83" s="10">
+      <c r="F83" s="9">
         <v>62.93</v>
       </c>
-      <c r="G83" s="10">
+      <c r="G83" s="9">
         <v>72.43</v>
       </c>
-      <c r="H83" s="9">
+      <c r="H83" s="8">
         <v>10989.0</v>
       </c>
       <c r="I83" s="3"/>
@@ -4076,7 +4087,7 @@
       <c r="A84" s="4">
         <v>2005.0</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C84" s="7">
@@ -4120,25 +4131,25 @@
       <c r="A85" s="4">
         <v>2005.0</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C85" s="10">
+      <c r="C85" s="9">
         <v>822.0</v>
       </c>
-      <c r="D85" s="9">
+      <c r="D85" s="8">
         <v>64319.0</v>
       </c>
-      <c r="E85" s="10">
+      <c r="E85" s="9">
         <v>55.84</v>
       </c>
-      <c r="F85" s="10">
+      <c r="F85" s="9">
         <v>47.06</v>
       </c>
-      <c r="G85" s="10">
+      <c r="G85" s="9">
         <v>54.51</v>
       </c>
-      <c r="H85" s="9">
+      <c r="H85" s="8">
         <v>10955.0</v>
       </c>
       <c r="I85" s="3"/>
@@ -4161,28 +4172,28 @@
       <c r="Z85" s="3"/>
     </row>
     <row r="86">
-      <c r="A86" s="11">
+      <c r="A86" s="10">
         <v>2006.0</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C86" s="10">
+      <c r="C86" s="9">
         <v>834.0</v>
       </c>
-      <c r="D86" s="9">
+      <c r="D86" s="8">
         <v>63958.0</v>
       </c>
-      <c r="E86" s="10">
+      <c r="E86" s="9">
         <v>58.86</v>
       </c>
-      <c r="F86" s="10">
+      <c r="F86" s="9">
         <v>46.26</v>
       </c>
-      <c r="G86" s="10">
+      <c r="G86" s="9">
         <v>54.39</v>
       </c>
-      <c r="H86" s="9">
+      <c r="H86" s="8">
         <v>10813.0</v>
       </c>
       <c r="I86" s="3"/>
@@ -4205,10 +4216,10 @@
       <c r="Z86" s="3"/>
     </row>
     <row r="87">
-      <c r="A87" s="11">
+      <c r="A87" s="10">
         <v>2006.0</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C87" s="7">
@@ -4249,28 +4260,28 @@
       <c r="Z87" s="3"/>
     </row>
     <row r="88">
-      <c r="A88" s="11">
+      <c r="A88" s="10">
         <v>2006.0</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C88" s="10">
+      <c r="C88" s="9">
         <v>816.0</v>
       </c>
-      <c r="D88" s="9">
+      <c r="D88" s="8">
         <v>64993.0</v>
       </c>
-      <c r="E88" s="10">
+      <c r="E88" s="9">
         <v>67.58</v>
       </c>
-      <c r="F88" s="10">
+      <c r="F88" s="9">
         <v>53.96</v>
       </c>
-      <c r="G88" s="10">
+      <c r="G88" s="9">
         <v>65.37</v>
       </c>
-      <c r="H88" s="9">
+      <c r="H88" s="8">
         <v>11073.0</v>
       </c>
       <c r="I88" s="3"/>
@@ -4293,10 +4304,10 @@
       <c r="Z88" s="3"/>
     </row>
     <row r="89">
-      <c r="A89" s="11">
+      <c r="A89" s="10">
         <v>2006.0</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C89" s="7">
@@ -4337,28 +4348,28 @@
       <c r="Z89" s="3"/>
     </row>
     <row r="90">
-      <c r="A90" s="11">
+      <c r="A90" s="10">
         <v>2006.0</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C90" s="10">
+      <c r="C90" s="9">
         <v>821.0</v>
       </c>
-      <c r="D90" s="9">
+      <c r="D90" s="8">
         <v>65550.0</v>
       </c>
-      <c r="E90" s="10">
+      <c r="E90" s="9">
         <v>74.39</v>
       </c>
-      <c r="F90" s="10">
+      <c r="F90" s="9">
         <v>58.3</v>
       </c>
-      <c r="G90" s="10">
+      <c r="G90" s="9">
         <v>69.37</v>
       </c>
-      <c r="H90" s="9">
+      <c r="H90" s="8">
         <v>11282.0</v>
       </c>
       <c r="I90" s="3"/>
@@ -4381,10 +4392,10 @@
       <c r="Z90" s="3"/>
     </row>
     <row r="91">
-      <c r="A91" s="11">
+      <c r="A91" s="10">
         <v>2006.0</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C91" s="7">
@@ -4425,28 +4436,28 @@
       <c r="Z91" s="3"/>
     </row>
     <row r="92">
-      <c r="A92" s="11">
+      <c r="A92" s="10">
         <v>2006.0</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C92" s="10">
+      <c r="C92" s="9">
         <v>795.0</v>
       </c>
-      <c r="D92" s="9">
+      <c r="D92" s="8">
         <v>65145.0</v>
       </c>
-      <c r="E92" s="10">
+      <c r="E92" s="9">
         <v>61.63</v>
       </c>
-      <c r="F92" s="10">
+      <c r="F92" s="9">
         <v>50.73</v>
       </c>
-      <c r="G92" s="10">
+      <c r="G92" s="9">
         <v>53.71</v>
       </c>
-      <c r="H92" s="9">
+      <c r="H92" s="8">
         <v>11000.0</v>
       </c>
       <c r="I92" s="3"/>
@@ -4469,10 +4480,10 @@
       <c r="Z92" s="3"/>
     </row>
     <row r="93">
-      <c r="A93" s="11">
+      <c r="A93" s="10">
         <v>2006.0</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C93" s="7">
@@ -4513,28 +4524,28 @@
       <c r="Z93" s="3"/>
     </row>
     <row r="94">
-      <c r="A94" s="11">
+      <c r="A94" s="10">
         <v>2006.0</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C94" s="10">
+      <c r="C94" s="9">
         <v>831.0</v>
       </c>
-      <c r="D94" s="9">
+      <c r="D94" s="8">
         <v>66358.0</v>
       </c>
-      <c r="E94" s="10">
+      <c r="E94" s="9">
         <v>78.07</v>
       </c>
-      <c r="F94" s="10">
+      <c r="F94" s="9">
         <v>61.18</v>
       </c>
-      <c r="G94" s="10">
+      <c r="G94" s="9">
         <v>70.5</v>
       </c>
-      <c r="H94" s="9">
+      <c r="H94" s="8">
         <v>11287.0</v>
       </c>
       <c r="I94" s="3"/>
@@ -4557,10 +4568,10 @@
       <c r="Z94" s="3"/>
     </row>
     <row r="95">
-      <c r="A95" s="11">
+      <c r="A95" s="10">
         <v>2006.0</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C95" s="7">
@@ -4601,28 +4612,28 @@
       <c r="Z95" s="3"/>
     </row>
     <row r="96">
-      <c r="A96" s="11">
+      <c r="A96" s="10">
         <v>2006.0</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C96" s="10">
+      <c r="C96" s="9">
         <v>821.0</v>
       </c>
-      <c r="D96" s="9">
+      <c r="D96" s="8">
         <v>67346.0</v>
       </c>
-      <c r="E96" s="10">
+      <c r="E96" s="9">
         <v>72.91</v>
       </c>
-      <c r="F96" s="10">
+      <c r="F96" s="9">
         <v>55.78</v>
       </c>
-      <c r="G96" s="10">
+      <c r="G96" s="9">
         <v>66.64</v>
       </c>
-      <c r="H96" s="9">
+      <c r="H96" s="8">
         <v>11720.0</v>
       </c>
       <c r="I96" s="3"/>
@@ -4645,10 +4656,10 @@
       <c r="Z96" s="3"/>
     </row>
     <row r="97">
-      <c r="A97" s="11">
+      <c r="A97" s="10">
         <v>2006.0</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C97" s="7">
@@ -4692,7 +4703,7 @@
       <c r="A98" s="4">
         <v>2007.0</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C98" s="7">
@@ -4736,25 +4747,25 @@
       <c r="A99" s="4">
         <v>2007.0</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C99" s="10">
+      <c r="C99" s="9">
         <v>804.0</v>
       </c>
-      <c r="D99" s="9">
+      <c r="D99" s="8">
         <v>67697.0</v>
       </c>
-      <c r="E99" s="10">
+      <c r="E99" s="9">
         <v>71.41</v>
       </c>
-      <c r="F99" s="10">
+      <c r="F99" s="9">
         <v>55.69</v>
       </c>
-      <c r="G99" s="10">
+      <c r="G99" s="9">
         <v>63.53</v>
       </c>
-      <c r="H99" s="9">
+      <c r="H99" s="8">
         <v>11945.0</v>
       </c>
       <c r="I99" s="3"/>
@@ -4780,7 +4791,7 @@
       <c r="A100" s="4">
         <v>2007.0</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C100" s="7">
@@ -4824,25 +4835,25 @@
       <c r="A101" s="4">
         <v>2007.0</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C101" s="10">
+      <c r="C101" s="9">
         <v>827.0</v>
       </c>
-      <c r="D101" s="9">
+      <c r="D101" s="8">
         <v>68225.0</v>
       </c>
-      <c r="E101" s="10">
+      <c r="E101" s="9">
         <v>73.51</v>
       </c>
-      <c r="F101" s="10">
+      <c r="F101" s="9">
         <v>61.56</v>
       </c>
-      <c r="G101" s="10">
+      <c r="G101" s="9">
         <v>73.6</v>
       </c>
-      <c r="H101" s="9">
+      <c r="H101" s="8">
         <v>12255.0</v>
       </c>
       <c r="I101" s="3"/>
@@ -4868,7 +4879,7 @@
       <c r="A102" s="4">
         <v>2007.0</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C102" s="7">
@@ -4912,25 +4923,25 @@
       <c r="A103" s="4">
         <v>2007.0</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C103" s="10">
+      <c r="C103" s="9">
         <v>826.0</v>
       </c>
-      <c r="D103" s="9">
+      <c r="D103" s="8">
         <v>68101.0</v>
       </c>
-      <c r="E103" s="10">
+      <c r="E103" s="9">
         <v>77.69</v>
       </c>
-      <c r="F103" s="10">
+      <c r="F103" s="9">
         <v>63.08</v>
       </c>
-      <c r="G103" s="10">
+      <c r="G103" s="9">
         <v>69.46</v>
       </c>
-      <c r="H103" s="9">
+      <c r="H103" s="8">
         <v>12095.0</v>
       </c>
       <c r="I103" s="3"/>
@@ -4956,7 +4967,7 @@
       <c r="A104" s="4">
         <v>2007.0</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C104" s="7">
@@ -5000,25 +5011,25 @@
       <c r="A105" s="4">
         <v>2007.0</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C105" s="10">
+      <c r="C105" s="9">
         <v>721.0</v>
       </c>
-      <c r="D105" s="9">
+      <c r="D105" s="8">
         <v>65733.0</v>
       </c>
-      <c r="E105" s="10">
+      <c r="E105" s="9">
         <v>54.25</v>
       </c>
-      <c r="F105" s="10">
+      <c r="F105" s="9">
         <v>49.42</v>
       </c>
-      <c r="G105" s="10">
+      <c r="G105" s="9">
         <v>55.68</v>
       </c>
-      <c r="H105" s="9">
+      <c r="H105" s="8">
         <v>11195.0</v>
       </c>
       <c r="I105" s="3"/>
@@ -5044,7 +5055,7 @@
       <c r="A106" s="4">
         <v>2007.0</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C106" s="7">
@@ -5088,25 +5099,25 @@
       <c r="A107" s="4">
         <v>2007.0</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B107" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C107" s="10">
+      <c r="C107" s="9">
         <v>796.0</v>
       </c>
-      <c r="D107" s="9">
+      <c r="D107" s="8">
         <v>67180.0</v>
       </c>
-      <c r="E107" s="10">
+      <c r="E107" s="9">
         <v>80.79</v>
       </c>
-      <c r="F107" s="10">
+      <c r="F107" s="9">
         <v>64.5</v>
       </c>
-      <c r="G107" s="10">
+      <c r="G107" s="9">
         <v>76.99</v>
       </c>
-      <c r="H107" s="9">
+      <c r="H107" s="8">
         <v>11635.0</v>
       </c>
       <c r="I107" s="3"/>
@@ -5132,7 +5143,7 @@
       <c r="A108" s="4">
         <v>2007.0</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C108" s="7">
@@ -5176,25 +5187,25 @@
       <c r="A109" s="4">
         <v>2007.0</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C109" s="10">
+      <c r="C109" s="9">
         <v>822.0</v>
       </c>
-      <c r="D109" s="9">
+      <c r="D109" s="8">
         <v>69144.0</v>
       </c>
-      <c r="E109" s="10">
+      <c r="E109" s="9">
         <v>60.69</v>
       </c>
-      <c r="F109" s="10">
+      <c r="F109" s="9">
         <v>51.4</v>
       </c>
-      <c r="G109" s="10">
+      <c r="G109" s="9">
         <v>65.02</v>
       </c>
-      <c r="H109" s="9">
+      <c r="H109" s="8">
         <v>11956.0</v>
       </c>
       <c r="I109" s="3"/>
@@ -5217,28 +5228,28 @@
       <c r="Z109" s="3"/>
     </row>
     <row r="110">
-      <c r="A110" s="11">
+      <c r="A110" s="10">
         <v>2008.0</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C110" s="10">
+      <c r="C110" s="9">
         <v>851.0</v>
       </c>
-      <c r="D110" s="9">
+      <c r="D110" s="8">
         <v>68448.0</v>
       </c>
-      <c r="E110" s="10">
+      <c r="E110" s="9">
         <v>58.98</v>
       </c>
-      <c r="F110" s="10">
+      <c r="F110" s="9">
         <v>47.96</v>
       </c>
-      <c r="G110" s="10">
+      <c r="G110" s="9">
         <v>51.03</v>
       </c>
-      <c r="H110" s="9">
+      <c r="H110" s="8">
         <v>12025.0</v>
       </c>
       <c r="I110" s="3"/>
@@ -5261,10 +5272,10 @@
       <c r="Z110" s="3"/>
     </row>
     <row r="111">
-      <c r="A111" s="11">
+      <c r="A111" s="10">
         <v>2008.0</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C111" s="7">
@@ -5305,28 +5316,28 @@
       <c r="Z111" s="3"/>
     </row>
     <row r="112">
-      <c r="A112" s="11">
+      <c r="A112" s="10">
         <v>2008.0</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C112" s="10">
+      <c r="C112" s="9">
         <v>855.0</v>
       </c>
-      <c r="D112" s="9">
+      <c r="D112" s="8">
         <v>68899.0</v>
       </c>
-      <c r="E112" s="10">
+      <c r="E112" s="9">
         <v>65.68</v>
       </c>
-      <c r="F112" s="10">
+      <c r="F112" s="9">
         <v>56.44</v>
       </c>
-      <c r="G112" s="10">
+      <c r="G112" s="9">
         <v>64.07</v>
       </c>
-      <c r="H112" s="9">
+      <c r="H112" s="8">
         <v>12606.0</v>
       </c>
       <c r="I112" s="3"/>
@@ -5349,10 +5360,10 @@
       <c r="Z112" s="3"/>
     </row>
     <row r="113">
-      <c r="A113" s="11">
+      <c r="A113" s="10">
         <v>2008.0</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C113" s="7">
@@ -5393,28 +5404,28 @@
       <c r="Z113" s="3"/>
     </row>
     <row r="114">
-      <c r="A114" s="11">
+      <c r="A114" s="10">
         <v>2008.0</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B114" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C114" s="10">
+      <c r="C114" s="9">
         <v>860.0</v>
       </c>
-      <c r="D114" s="9">
+      <c r="D114" s="8">
         <v>70120.0</v>
       </c>
-      <c r="E114" s="10">
+      <c r="E114" s="9">
         <v>76.28</v>
       </c>
-      <c r="F114" s="10">
+      <c r="F114" s="9">
         <v>61.74</v>
       </c>
-      <c r="G114" s="10">
+      <c r="G114" s="9">
         <v>70.54</v>
       </c>
-      <c r="H114" s="9">
+      <c r="H114" s="8">
         <v>12743.0</v>
       </c>
       <c r="I114" s="3"/>
@@ -5437,10 +5448,10 @@
       <c r="Z114" s="3"/>
     </row>
     <row r="115">
-      <c r="A115" s="11">
+      <c r="A115" s="10">
         <v>2008.0</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C115" s="7">
@@ -5481,28 +5492,28 @@
       <c r="Z115" s="3"/>
     </row>
     <row r="116">
-      <c r="A116" s="11">
+      <c r="A116" s="10">
         <v>2008.0</v>
       </c>
-      <c r="B116" s="8" t="s">
+      <c r="B116" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C116" s="10">
+      <c r="C116" s="9">
         <v>840.0</v>
       </c>
-      <c r="D116" s="9">
+      <c r="D116" s="8">
         <v>70790.0</v>
       </c>
-      <c r="E116" s="10">
+      <c r="E116" s="9">
         <v>60.94</v>
       </c>
-      <c r="F116" s="10">
+      <c r="F116" s="9">
         <v>52.47</v>
       </c>
-      <c r="G116" s="10">
+      <c r="G116" s="9">
         <v>57.68</v>
       </c>
-      <c r="H116" s="9">
+      <c r="H116" s="8">
         <v>12573.0</v>
       </c>
       <c r="I116" s="3"/>
@@ -5525,10 +5536,10 @@
       <c r="Z116" s="3"/>
     </row>
     <row r="117">
-      <c r="A117" s="11">
+      <c r="A117" s="10">
         <v>2008.0</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C117" s="7">
@@ -5569,28 +5580,28 @@
       <c r="Z117" s="3"/>
     </row>
     <row r="118">
-      <c r="A118" s="11">
+      <c r="A118" s="10">
         <v>2008.0</v>
       </c>
-      <c r="B118" s="8" t="s">
+      <c r="B118" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C118" s="10">
+      <c r="C118" s="9">
         <v>866.0</v>
       </c>
-      <c r="D118" s="9">
+      <c r="D118" s="8">
         <v>71357.0</v>
       </c>
-      <c r="E118" s="10">
+      <c r="E118" s="9">
         <v>67.58</v>
       </c>
-      <c r="F118" s="10">
+      <c r="F118" s="9">
         <v>56.13</v>
       </c>
-      <c r="G118" s="10">
+      <c r="G118" s="9">
         <v>61.77</v>
       </c>
-      <c r="H118" s="9">
+      <c r="H118" s="8">
         <v>12567.0</v>
       </c>
       <c r="I118" s="3"/>
@@ -5613,10 +5624,10 @@
       <c r="Z118" s="3"/>
     </row>
     <row r="119">
-      <c r="A119" s="11">
+      <c r="A119" s="10">
         <v>2008.0</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B119" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C119" s="7">
@@ -5657,28 +5668,28 @@
       <c r="Z119" s="3"/>
     </row>
     <row r="120">
-      <c r="A120" s="11">
+      <c r="A120" s="10">
         <v>2008.0</v>
       </c>
-      <c r="B120" s="8" t="s">
+      <c r="B120" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C120" s="10">
+      <c r="C120" s="9">
         <v>884.0</v>
       </c>
-      <c r="D120" s="9">
+      <c r="D120" s="8">
         <v>71677.0</v>
       </c>
-      <c r="E120" s="10">
+      <c r="E120" s="9">
         <v>64.23</v>
       </c>
-      <c r="F120" s="10">
+      <c r="F120" s="9">
         <v>49.75</v>
       </c>
-      <c r="G120" s="10">
+      <c r="G120" s="9">
         <v>59.57</v>
       </c>
-      <c r="H120" s="9">
+      <c r="H120" s="8">
         <v>12605.0</v>
       </c>
       <c r="I120" s="3"/>
@@ -5701,10 +5712,10 @@
       <c r="Z120" s="3"/>
     </row>
     <row r="121">
-      <c r="A121" s="11">
+      <c r="A121" s="10">
         <v>2008.0</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="B121" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C121" s="7">
@@ -5748,7 +5759,7 @@
       <c r="A122" s="4">
         <v>2009.0</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="B122" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C122" s="7">
@@ -5792,25 +5803,25 @@
       <c r="A123" s="4">
         <v>2009.0</v>
       </c>
-      <c r="B123" s="8" t="s">
+      <c r="B123" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C123" s="10">
+      <c r="C123" s="9">
         <v>879.0</v>
       </c>
-      <c r="D123" s="9">
+      <c r="D123" s="8">
         <v>72546.0</v>
       </c>
-      <c r="E123" s="10">
+      <c r="E123" s="9">
         <v>57.81</v>
       </c>
-      <c r="F123" s="10">
+      <c r="F123" s="9">
         <v>48.27</v>
       </c>
-      <c r="G123" s="10">
+      <c r="G123" s="9">
         <v>55.59</v>
       </c>
-      <c r="H123" s="9">
+      <c r="H123" s="8">
         <v>12264.0</v>
       </c>
       <c r="I123" s="3"/>
@@ -5836,7 +5847,7 @@
       <c r="A124" s="4">
         <v>2009.0</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="B124" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C124" s="7">
@@ -5880,25 +5891,25 @@
       <c r="A125" s="4">
         <v>2009.0</v>
       </c>
-      <c r="B125" s="8" t="s">
+      <c r="B125" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C125" s="10">
+      <c r="C125" s="9">
         <v>878.0</v>
       </c>
-      <c r="D125" s="9">
+      <c r="D125" s="8">
         <v>73697.0</v>
       </c>
-      <c r="E125" s="10">
+      <c r="E125" s="9">
         <v>61.26</v>
       </c>
-      <c r="F125" s="10">
+      <c r="F125" s="9">
         <v>52.71</v>
       </c>
-      <c r="G125" s="10">
+      <c r="G125" s="9">
         <v>62.33</v>
       </c>
-      <c r="H125" s="9">
+      <c r="H125" s="8">
         <v>12402.0</v>
       </c>
       <c r="I125" s="3"/>
@@ -5924,7 +5935,7 @@
       <c r="A126" s="4">
         <v>2009.0</v>
       </c>
-      <c r="B126" s="5" t="s">
+      <c r="B126" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C126" s="7">
@@ -5968,25 +5979,25 @@
       <c r="A127" s="4">
         <v>2009.0</v>
       </c>
-      <c r="B127" s="8" t="s">
+      <c r="B127" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C127" s="10">
+      <c r="C127" s="9">
         <v>883.0</v>
       </c>
-      <c r="D127" s="9">
+      <c r="D127" s="8">
         <v>74498.0</v>
       </c>
-      <c r="E127" s="10">
+      <c r="E127" s="9">
         <v>58.06</v>
       </c>
-      <c r="F127" s="10">
+      <c r="F127" s="9">
         <v>49.39</v>
       </c>
-      <c r="G127" s="10">
+      <c r="G127" s="9">
         <v>55.26</v>
       </c>
-      <c r="H127" s="9">
+      <c r="H127" s="8">
         <v>12164.0</v>
       </c>
       <c r="I127" s="3"/>
@@ -6012,7 +6023,7 @@
       <c r="A128" s="4">
         <v>2009.0</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="B128" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C128" s="7">
@@ -6056,25 +6067,25 @@
       <c r="A129" s="4">
         <v>2009.0</v>
       </c>
-      <c r="B129" s="8" t="s">
+      <c r="B129" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C129" s="10">
+      <c r="C129" s="9">
         <v>743.0</v>
       </c>
-      <c r="D129" s="9">
+      <c r="D129" s="8">
         <v>71625.0</v>
       </c>
-      <c r="E129" s="10">
+      <c r="E129" s="9">
         <v>45.41</v>
       </c>
-      <c r="F129" s="10">
+      <c r="F129" s="9">
         <v>44.54</v>
       </c>
-      <c r="G129" s="10">
+      <c r="G129" s="9">
         <v>46.62</v>
       </c>
-      <c r="H129" s="9">
+      <c r="H129" s="8">
         <v>11438.0</v>
       </c>
       <c r="I129" s="3"/>
@@ -6100,7 +6111,7 @@
       <c r="A130" s="4">
         <v>2009.0</v>
       </c>
-      <c r="B130" s="5" t="s">
+      <c r="B130" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C130" s="7">
@@ -6144,25 +6155,25 @@
       <c r="A131" s="4">
         <v>2009.0</v>
       </c>
-      <c r="B131" s="8" t="s">
+      <c r="B131" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C131" s="10">
+      <c r="C131" s="9">
         <v>900.0</v>
       </c>
-      <c r="D131" s="9">
+      <c r="D131" s="8">
         <v>75490.0</v>
       </c>
-      <c r="E131" s="10">
+      <c r="E131" s="9">
         <v>71.59</v>
       </c>
-      <c r="F131" s="10">
+      <c r="F131" s="9">
         <v>60.07</v>
       </c>
-      <c r="G131" s="10">
+      <c r="G131" s="9">
         <v>66.53</v>
       </c>
-      <c r="H131" s="9">
+      <c r="H131" s="8">
         <v>12219.0</v>
       </c>
       <c r="I131" s="3"/>
@@ -6188,7 +6199,7 @@
       <c r="A132" s="4">
         <v>2009.0</v>
       </c>
-      <c r="B132" s="5" t="s">
+      <c r="B132" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C132" s="7">
@@ -6232,25 +6243,25 @@
       <c r="A133" s="4">
         <v>2009.0</v>
       </c>
-      <c r="B133" s="8" t="s">
+      <c r="B133" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C133" s="10">
+      <c r="C133" s="9">
         <v>903.0</v>
       </c>
-      <c r="D133" s="9">
+      <c r="D133" s="8">
         <v>76429.0</v>
       </c>
-      <c r="E133" s="10">
+      <c r="E133" s="9">
         <v>55.76</v>
       </c>
-      <c r="F133" s="10">
+      <c r="F133" s="9">
         <v>49.5</v>
       </c>
-      <c r="G133" s="10">
+      <c r="G133" s="9">
         <v>57.87</v>
       </c>
-      <c r="H133" s="9">
+      <c r="H133" s="8">
         <v>12181.0</v>
       </c>
       <c r="I133" s="3"/>
@@ -6273,28 +6284,28 @@
       <c r="Z133" s="3"/>
     </row>
     <row r="134">
-      <c r="A134" s="11">
+      <c r="A134" s="10">
         <v>2010.0</v>
       </c>
-      <c r="B134" s="8" t="s">
+      <c r="B134" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C134" s="10">
+      <c r="C134" s="9">
         <v>829.0</v>
       </c>
-      <c r="D134" s="9">
+      <c r="D134" s="8">
         <v>75017.0</v>
       </c>
-      <c r="E134" s="10">
+      <c r="E134" s="9">
         <v>53.26</v>
       </c>
-      <c r="F134" s="10">
+      <c r="F134" s="9">
         <v>43.43</v>
       </c>
-      <c r="G134" s="10">
+      <c r="G134" s="9">
         <v>49.25</v>
       </c>
-      <c r="H134" s="9">
+      <c r="H134" s="8">
         <v>11961.0</v>
       </c>
       <c r="I134" s="3"/>
@@ -6317,10 +6328,10 @@
       <c r="Z134" s="3"/>
     </row>
     <row r="135">
-      <c r="A135" s="11">
+      <c r="A135" s="10">
         <v>2010.0</v>
       </c>
-      <c r="B135" s="5" t="s">
+      <c r="B135" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C135" s="7">
@@ -6361,28 +6372,28 @@
       <c r="Z135" s="3"/>
     </row>
     <row r="136">
-      <c r="A136" s="11">
+      <c r="A136" s="10">
         <v>2010.0</v>
       </c>
-      <c r="B136" s="8" t="s">
+      <c r="B136" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C136" s="10">
+      <c r="C136" s="9">
         <v>855.0</v>
       </c>
-      <c r="D136" s="9">
+      <c r="D136" s="8">
         <v>76105.0</v>
       </c>
-      <c r="E136" s="10">
+      <c r="E136" s="9">
         <v>63.28</v>
       </c>
-      <c r="F136" s="10">
+      <c r="F136" s="9">
         <v>53.15</v>
       </c>
-      <c r="G136" s="10">
+      <c r="G136" s="9">
         <v>63.56</v>
       </c>
-      <c r="H136" s="9">
+      <c r="H136" s="8">
         <v>11895.0</v>
       </c>
       <c r="I136" s="3"/>
@@ -6405,10 +6416,10 @@
       <c r="Z136" s="3"/>
     </row>
     <row r="137">
-      <c r="A137" s="11">
+      <c r="A137" s="10">
         <v>2010.0</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="B137" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C137" s="7">
@@ -6449,28 +6460,28 @@
       <c r="Z137" s="3"/>
     </row>
     <row r="138">
-      <c r="A138" s="11">
+      <c r="A138" s="10">
         <v>2010.0</v>
       </c>
-      <c r="B138" s="8" t="s">
+      <c r="B138" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C138" s="10">
+      <c r="C138" s="9">
         <v>848.0</v>
       </c>
-      <c r="D138" s="9">
+      <c r="D138" s="8">
         <v>76087.0</v>
       </c>
-      <c r="E138" s="10">
+      <c r="E138" s="9">
         <v>74.35</v>
       </c>
-      <c r="F138" s="10">
+      <c r="F138" s="9">
         <v>61.05</v>
       </c>
-      <c r="G138" s="10">
+      <c r="G138" s="9">
         <v>70.15</v>
       </c>
-      <c r="H138" s="9">
+      <c r="H138" s="8">
         <v>11977.0</v>
       </c>
       <c r="I138" s="3"/>
@@ -6493,10 +6504,10 @@
       <c r="Z138" s="3"/>
     </row>
     <row r="139">
-      <c r="A139" s="11">
+      <c r="A139" s="10">
         <v>2010.0</v>
       </c>
-      <c r="B139" s="5" t="s">
+      <c r="B139" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C139" s="7">
@@ -6537,28 +6548,28 @@
       <c r="Z139" s="3"/>
     </row>
     <row r="140">
-      <c r="A140" s="11">
+      <c r="A140" s="10">
         <v>2010.0</v>
       </c>
-      <c r="B140" s="8" t="s">
+      <c r="B140" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C140" s="10">
+      <c r="C140" s="9">
         <v>860.0</v>
       </c>
-      <c r="D140" s="9">
+      <c r="D140" s="8">
         <v>76256.0</v>
       </c>
-      <c r="E140" s="10">
+      <c r="E140" s="9">
         <v>59.33</v>
       </c>
-      <c r="F140" s="10">
+      <c r="F140" s="9">
         <v>52.85</v>
       </c>
-      <c r="G140" s="10">
+      <c r="G140" s="9">
         <v>57.29</v>
       </c>
-      <c r="H140" s="9">
+      <c r="H140" s="8">
         <v>11901.0</v>
       </c>
       <c r="I140" s="3"/>
@@ -6581,10 +6592,10 @@
       <c r="Z140" s="3"/>
     </row>
     <row r="141">
-      <c r="A141" s="11">
+      <c r="A141" s="10">
         <v>2010.0</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="B141" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C141" s="7">
@@ -6625,28 +6636,28 @@
       <c r="Z141" s="3"/>
     </row>
     <row r="142">
-      <c r="A142" s="11">
+      <c r="A142" s="10">
         <v>2010.0</v>
       </c>
-      <c r="B142" s="8" t="s">
+      <c r="B142" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C142" s="10">
+      <c r="C142" s="9">
         <v>858.0</v>
       </c>
-      <c r="D142" s="9">
+      <c r="D142" s="8">
         <v>76768.0</v>
       </c>
-      <c r="E142" s="10">
+      <c r="E142" s="9">
         <v>70.7</v>
       </c>
-      <c r="F142" s="10">
+      <c r="F142" s="9">
         <v>59.68</v>
       </c>
-      <c r="G142" s="10">
+      <c r="G142" s="9">
         <v>66.68</v>
       </c>
-      <c r="H142" s="9">
+      <c r="H142" s="8">
         <v>12038.0</v>
       </c>
       <c r="I142" s="3"/>
@@ -6669,10 +6680,10 @@
       <c r="Z142" s="3"/>
     </row>
     <row r="143">
-      <c r="A143" s="11">
+      <c r="A143" s="10">
         <v>2010.0</v>
       </c>
-      <c r="B143" s="5" t="s">
+      <c r="B143" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C143" s="7">
@@ -6713,28 +6724,28 @@
       <c r="Z143" s="3"/>
     </row>
     <row r="144">
-      <c r="A144" s="11">
+      <c r="A144" s="10">
         <v>2010.0</v>
       </c>
-      <c r="B144" s="8" t="s">
+      <c r="B144" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C144" s="10">
+      <c r="C144" s="9">
         <v>852.0</v>
       </c>
-      <c r="D144" s="9">
+      <c r="D144" s="8">
         <v>77226.0</v>
       </c>
-      <c r="E144" s="10">
+      <c r="E144" s="9">
         <v>66.93</v>
       </c>
-      <c r="F144" s="10">
+      <c r="F144" s="9">
         <v>53.74</v>
       </c>
-      <c r="G144" s="10">
+      <c r="G144" s="9">
         <v>64.23</v>
       </c>
-      <c r="H144" s="9">
+      <c r="H144" s="8">
         <v>12280.0</v>
       </c>
       <c r="I144" s="3"/>
@@ -6757,10 +6768,10 @@
       <c r="Z144" s="3"/>
     </row>
     <row r="145">
-      <c r="A145" s="11">
+      <c r="A145" s="10">
         <v>2010.0</v>
       </c>
-      <c r="B145" s="5" t="s">
+      <c r="B145" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C145" s="7">
@@ -6804,7 +6815,7 @@
       <c r="A146" s="4">
         <v>2011.0</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="B146" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C146" s="7">
@@ -6848,25 +6859,25 @@
       <c r="A147" s="4">
         <v>2011.0</v>
       </c>
-      <c r="B147" s="8" t="s">
+      <c r="B147" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C147" s="10">
+      <c r="C147" s="9">
         <v>869.0</v>
       </c>
-      <c r="D147" s="9">
+      <c r="D147" s="8">
         <v>78193.0</v>
       </c>
-      <c r="E147" s="10">
+      <c r="E147" s="9">
         <v>62.35</v>
       </c>
-      <c r="F147" s="10">
+      <c r="F147" s="9">
         <v>49.97</v>
       </c>
-      <c r="G147" s="10">
+      <c r="G147" s="9">
         <v>62.78</v>
       </c>
-      <c r="H147" s="9">
+      <c r="H147" s="8">
         <v>12091.0</v>
       </c>
       <c r="I147" s="3"/>
@@ -6892,7 +6903,7 @@
       <c r="A148" s="4">
         <v>2011.0</v>
       </c>
-      <c r="B148" s="5" t="s">
+      <c r="B148" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C148" s="7">
@@ -6936,25 +6947,25 @@
       <c r="A149" s="4">
         <v>2011.0</v>
       </c>
-      <c r="B149" s="8" t="s">
+      <c r="B149" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C149" s="10">
+      <c r="C149" s="9">
         <v>865.0</v>
       </c>
-      <c r="D149" s="9">
+      <c r="D149" s="8">
         <v>79179.0</v>
       </c>
-      <c r="E149" s="10">
+      <c r="E149" s="9">
         <v>71.23</v>
       </c>
-      <c r="F149" s="10">
+      <c r="F149" s="9">
         <v>62.71</v>
       </c>
-      <c r="G149" s="10">
+      <c r="G149" s="9">
         <v>69.49</v>
       </c>
-      <c r="H149" s="9">
+      <c r="H149" s="8">
         <v>12297.0</v>
       </c>
       <c r="I149" s="3"/>
@@ -6980,13 +6991,13 @@
       <c r="A150" s="4">
         <v>2011.0</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="B150" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C150" s="7">
         <v>866.31</v>
       </c>
-      <c r="D150" s="12">
+      <c r="D150" s="11">
         <v>79546.99</v>
       </c>
       <c r="E150" s="7">
@@ -6998,7 +7009,7 @@
       <c r="G150" s="7">
         <v>70.19</v>
       </c>
-      <c r="H150" s="12">
+      <c r="H150" s="11">
         <v>12307.24</v>
       </c>
       <c r="I150" s="3"/>
@@ -7024,25 +7035,25 @@
       <c r="A151" s="4">
         <v>2011.0</v>
       </c>
-      <c r="B151" s="8" t="s">
+      <c r="B151" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C151" s="10">
+      <c r="C151" s="9">
         <v>864.91</v>
       </c>
-      <c r="D151" s="13">
+      <c r="D151" s="12">
         <v>79576.14</v>
       </c>
-      <c r="E151" s="10">
+      <c r="E151" s="9">
         <v>71.4</v>
       </c>
-      <c r="F151" s="10">
+      <c r="F151" s="9">
         <v>59.45</v>
       </c>
-      <c r="G151" s="10">
+      <c r="G151" s="9">
         <v>67.36</v>
       </c>
-      <c r="H151" s="9">
+      <c r="H151" s="8">
         <v>12243.0</v>
       </c>
       <c r="I151" s="3"/>
@@ -7068,13 +7079,13 @@
       <c r="A152" s="4">
         <v>2011.0</v>
       </c>
-      <c r="B152" s="5" t="s">
+      <c r="B152" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C152" s="7">
         <v>850.02</v>
       </c>
-      <c r="D152" s="12">
+      <c r="D152" s="11">
         <v>78614.73</v>
       </c>
       <c r="E152" s="7">
@@ -7086,7 +7097,7 @@
       <c r="G152" s="7">
         <v>60.29</v>
       </c>
-      <c r="H152" s="12">
+      <c r="H152" s="11">
         <v>11938.46</v>
       </c>
       <c r="I152" s="3"/>
@@ -7112,25 +7123,25 @@
       <c r="A153" s="4">
         <v>2011.0</v>
       </c>
-      <c r="B153" s="8" t="s">
+      <c r="B153" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C153" s="10">
+      <c r="C153" s="9">
         <v>794.31</v>
       </c>
-      <c r="D153" s="13">
+      <c r="D153" s="12">
         <v>78283.87</v>
       </c>
-      <c r="E153" s="10">
+      <c r="E153" s="9">
         <v>60.58</v>
       </c>
-      <c r="F153" s="10">
+      <c r="F153" s="9">
         <v>56.4</v>
       </c>
-      <c r="G153" s="10">
+      <c r="G153" s="9">
         <v>60.51</v>
       </c>
-      <c r="H153" s="9">
+      <c r="H153" s="8">
         <v>11587.0</v>
       </c>
       <c r="I153" s="3"/>
@@ -7156,13 +7167,13 @@
       <c r="A154" s="4">
         <v>2011.0</v>
       </c>
-      <c r="B154" s="5" t="s">
+      <c r="B154" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C154" s="7">
         <v>867.24</v>
       </c>
-      <c r="D154" s="12">
+      <c r="D154" s="11">
         <v>79609.31</v>
       </c>
       <c r="E154" s="7">
@@ -7200,25 +7211,25 @@
       <c r="A155" s="4">
         <v>2011.0</v>
       </c>
-      <c r="B155" s="8" t="s">
+      <c r="B155" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C155" s="10">
+      <c r="C155" s="9">
         <v>871.9</v>
       </c>
-      <c r="D155" s="13">
+      <c r="D155" s="12">
         <v>79692.34</v>
       </c>
-      <c r="E155" s="10">
+      <c r="E155" s="9">
         <v>78.0</v>
       </c>
-      <c r="F155" s="10">
+      <c r="F155" s="9">
         <v>64.83</v>
       </c>
-      <c r="G155" s="10">
+      <c r="G155" s="9">
         <v>72.01</v>
       </c>
-      <c r="H155" s="9">
+      <c r="H155" s="8">
         <v>12163.0</v>
       </c>
       <c r="I155" s="3"/>
@@ -7244,13 +7255,13 @@
       <c r="A156" s="4">
         <v>2011.0</v>
       </c>
-      <c r="B156" s="5" t="s">
+      <c r="B156" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C156" s="7">
         <v>885.9</v>
       </c>
-      <c r="D156" s="12">
+      <c r="D156" s="11">
         <v>80221.41</v>
       </c>
       <c r="E156" s="7">
@@ -7288,25 +7299,25 @@
       <c r="A157" s="4">
         <v>2011.0</v>
       </c>
-      <c r="B157" s="8" t="s">
+      <c r="B157" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C157" s="10">
+      <c r="C157" s="9">
         <v>873.92</v>
       </c>
-      <c r="D157" s="13">
+      <c r="D157" s="12">
         <v>80143.95</v>
       </c>
-      <c r="E157" s="10">
+      <c r="E157" s="9">
         <v>57.98</v>
       </c>
-      <c r="F157" s="10">
+      <c r="F157" s="9">
         <v>51.81</v>
       </c>
-      <c r="G157" s="10">
+      <c r="G157" s="9">
         <v>58.66</v>
       </c>
-      <c r="H157" s="9">
+      <c r="H157" s="8">
         <v>12169.0</v>
       </c>
       <c r="I157" s="3"/>
@@ -7329,28 +7340,28 @@
       <c r="Z157" s="3"/>
     </row>
     <row r="158">
-      <c r="A158" s="11">
+      <c r="A158" s="10">
         <v>2012.0</v>
       </c>
-      <c r="B158" s="8" t="s">
+      <c r="B158" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C158" s="10">
+      <c r="C158" s="9">
         <v>882.49</v>
       </c>
-      <c r="D158" s="13">
+      <c r="D158" s="12">
         <v>80704.39</v>
       </c>
-      <c r="E158" s="10">
+      <c r="E158" s="9">
         <v>54.06</v>
       </c>
-      <c r="F158" s="10">
+      <c r="F158" s="9">
         <v>44.37</v>
       </c>
-      <c r="G158" s="10">
+      <c r="G158" s="9">
         <v>48.66</v>
       </c>
-      <c r="H158" s="13">
+      <c r="H158" s="12">
         <v>12105.61</v>
       </c>
       <c r="I158" s="3"/>
@@ -7373,16 +7384,16 @@
       <c r="Z158" s="3"/>
     </row>
     <row r="159">
-      <c r="A159" s="11">
+      <c r="A159" s="10">
         <v>2012.0</v>
       </c>
-      <c r="B159" s="5" t="s">
+      <c r="B159" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C159" s="7">
         <v>881.6</v>
       </c>
-      <c r="D159" s="12">
+      <c r="D159" s="11">
         <v>80416.91</v>
       </c>
       <c r="E159" s="7">
@@ -7417,28 +7428,28 @@
       <c r="Z159" s="3"/>
     </row>
     <row r="160">
-      <c r="A160" s="11">
+      <c r="A160" s="10">
         <v>2012.0</v>
       </c>
-      <c r="B160" s="8" t="s">
+      <c r="B160" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C160" s="10">
+      <c r="C160" s="9">
         <v>881.94</v>
       </c>
-      <c r="D160" s="13">
+      <c r="D160" s="12">
         <v>80361.37</v>
       </c>
-      <c r="E160" s="10">
+      <c r="E160" s="9">
         <v>62.51</v>
       </c>
-      <c r="F160" s="10">
+      <c r="F160" s="9">
         <v>50.63</v>
       </c>
-      <c r="G160" s="10">
+      <c r="G160" s="9">
         <v>59.72</v>
       </c>
-      <c r="H160" s="13">
+      <c r="H160" s="12">
         <v>12077.66</v>
       </c>
       <c r="I160" s="3"/>
@@ -7461,16 +7472,16 @@
       <c r="Z160" s="3"/>
     </row>
     <row r="161">
-      <c r="A161" s="11">
+      <c r="A161" s="10">
         <v>2012.0</v>
       </c>
-      <c r="B161" s="5" t="s">
+      <c r="B161" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C161" s="7">
         <v>898.99</v>
       </c>
-      <c r="D161" s="12">
+      <c r="D161" s="11">
         <v>80545.66</v>
       </c>
       <c r="E161" s="7">
@@ -7482,7 +7493,7 @@
       <c r="G161" s="7">
         <v>72.39</v>
       </c>
-      <c r="H161" s="12">
+      <c r="H161" s="11">
         <v>12157.18</v>
       </c>
       <c r="I161" s="3"/>
@@ -7505,28 +7516,28 @@
       <c r="Z161" s="3"/>
     </row>
     <row r="162">
-      <c r="A162" s="11">
+      <c r="A162" s="10">
         <v>2012.0</v>
       </c>
-      <c r="B162" s="8" t="s">
+      <c r="B162" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C162" s="10">
+      <c r="C162" s="9">
         <v>880.17</v>
       </c>
-      <c r="D162" s="13">
+      <c r="D162" s="12">
         <v>80055.9</v>
       </c>
-      <c r="E162" s="10">
+      <c r="E162" s="9">
         <v>70.79</v>
       </c>
-      <c r="F162" s="10">
+      <c r="F162" s="9">
         <v>57.94</v>
       </c>
-      <c r="G162" s="10">
+      <c r="G162" s="9">
         <v>70.23</v>
       </c>
-      <c r="H162" s="13">
+      <c r="H162" s="12">
         <v>12172.5</v>
       </c>
       <c r="I162" s="3"/>
@@ -7549,16 +7560,16 @@
       <c r="Z162" s="3"/>
     </row>
     <row r="163">
-      <c r="A163" s="11">
+      <c r="A163" s="10">
         <v>2012.0</v>
       </c>
-      <c r="B163" s="5" t="s">
+      <c r="B163" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C163" s="7">
         <v>882.96</v>
       </c>
-      <c r="D163" s="12">
+      <c r="D163" s="11">
         <v>79851.94</v>
       </c>
       <c r="E163" s="7">
@@ -7570,7 +7581,7 @@
       <c r="G163" s="7">
         <v>63.33</v>
       </c>
-      <c r="H163" s="12">
+      <c r="H163" s="11">
         <v>11954.94</v>
       </c>
       <c r="I163" s="3"/>
@@ -7593,28 +7604,28 @@
       <c r="Z163" s="3"/>
     </row>
     <row r="164">
-      <c r="A164" s="11">
+      <c r="A164" s="10">
         <v>2012.0</v>
       </c>
-      <c r="B164" s="8" t="s">
+      <c r="B164" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C164" s="10">
+      <c r="C164" s="9">
         <v>886.67</v>
       </c>
-      <c r="D164" s="13">
+      <c r="D164" s="12">
         <v>80137.88</v>
       </c>
-      <c r="E164" s="10">
+      <c r="E164" s="9">
         <v>59.58</v>
       </c>
-      <c r="F164" s="10">
+      <c r="F164" s="9">
         <v>51.79</v>
       </c>
-      <c r="G164" s="10">
+      <c r="G164" s="9">
         <v>56.11</v>
       </c>
-      <c r="H164" s="13">
+      <c r="H164" s="12">
         <v>12059.34</v>
       </c>
       <c r="I164" s="3"/>
@@ -7637,16 +7648,16 @@
       <c r="Z164" s="3"/>
     </row>
     <row r="165">
-      <c r="A165" s="11">
+      <c r="A165" s="10">
         <v>2012.0</v>
       </c>
-      <c r="B165" s="5" t="s">
+      <c r="B165" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C165" s="7">
         <v>785.6</v>
       </c>
-      <c r="D165" s="12">
+      <c r="D165" s="11">
         <v>77722.95</v>
       </c>
       <c r="E165" s="7">
@@ -7658,7 +7669,7 @@
       <c r="G165" s="7">
         <v>49.51</v>
       </c>
-      <c r="H165" s="12">
+      <c r="H165" s="11">
         <v>11598.81</v>
       </c>
       <c r="I165" s="3"/>
@@ -7681,28 +7692,28 @@
       <c r="Z165" s="3"/>
     </row>
     <row r="166">
-      <c r="A166" s="11">
+      <c r="A166" s="10">
         <v>2012.0</v>
       </c>
-      <c r="B166" s="8" t="s">
+      <c r="B166" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C166" s="10">
+      <c r="C166" s="9">
         <v>900.54</v>
       </c>
-      <c r="D166" s="13">
+      <c r="D166" s="12">
         <v>80624.87</v>
       </c>
-      <c r="E166" s="10">
+      <c r="E166" s="9">
         <v>70.19</v>
       </c>
-      <c r="F166" s="10">
+      <c r="F166" s="9">
         <v>57.88</v>
       </c>
-      <c r="G166" s="10">
+      <c r="G166" s="9">
         <v>65.44</v>
       </c>
-      <c r="H166" s="13">
+      <c r="H166" s="12">
         <v>12054.76</v>
       </c>
       <c r="I166" s="3"/>
@@ -7725,16 +7736,16 @@
       <c r="Z166" s="3"/>
     </row>
     <row r="167">
-      <c r="A167" s="11">
+      <c r="A167" s="10">
         <v>2012.0</v>
       </c>
-      <c r="B167" s="5" t="s">
+      <c r="B167" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C167" s="7">
         <v>907.36</v>
       </c>
-      <c r="D167" s="12">
+      <c r="D167" s="11">
         <v>80514.26</v>
       </c>
       <c r="E167" s="7">
@@ -7746,7 +7757,7 @@
       <c r="G167" s="7">
         <v>70.62</v>
       </c>
-      <c r="H167" s="12">
+      <c r="H167" s="11">
         <v>12121.62</v>
       </c>
       <c r="I167" s="3"/>
@@ -7769,28 +7780,28 @@
       <c r="Z167" s="3"/>
     </row>
     <row r="168">
-      <c r="A168" s="11">
+      <c r="A168" s="10">
         <v>2012.0</v>
       </c>
-      <c r="B168" s="8" t="s">
+      <c r="B168" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C168" s="10">
+      <c r="C168" s="9">
         <v>902.39</v>
       </c>
-      <c r="D168" s="13">
+      <c r="D168" s="12">
         <v>79927.85</v>
       </c>
-      <c r="E168" s="10">
+      <c r="E168" s="9">
         <v>63.37</v>
       </c>
-      <c r="F168" s="10">
+      <c r="F168" s="9">
         <v>50.47</v>
       </c>
-      <c r="G168" s="10">
+      <c r="G168" s="9">
         <v>56.14</v>
       </c>
-      <c r="H168" s="13">
+      <c r="H168" s="12">
         <v>11938.41</v>
       </c>
       <c r="I168" s="3"/>
@@ -7813,16 +7824,16 @@
       <c r="Z168" s="3"/>
     </row>
     <row r="169">
-      <c r="A169" s="11">
+      <c r="A169" s="10">
         <v>2012.0</v>
       </c>
-      <c r="B169" s="5" t="s">
+      <c r="B169" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C169" s="7">
         <v>896.71</v>
       </c>
-      <c r="D169" s="12">
+      <c r="D169" s="11">
         <v>79985.34</v>
       </c>
       <c r="E169" s="7">
@@ -7834,7 +7845,7 @@
       <c r="G169" s="7">
         <v>56.7</v>
       </c>
-      <c r="H169" s="12">
+      <c r="H169" s="11">
         <v>11725.71</v>
       </c>
       <c r="I169" s="3"/>
@@ -7860,13 +7871,13 @@
       <c r="A170" s="4">
         <v>2013.0</v>
       </c>
-      <c r="B170" s="5" t="s">
+      <c r="B170" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C170" s="7">
         <v>883.51</v>
       </c>
-      <c r="D170" s="12">
+      <c r="D170" s="11">
         <v>80314.38</v>
       </c>
       <c r="E170" s="7">
@@ -7878,7 +7889,7 @@
       <c r="G170" s="7">
         <v>41.7</v>
       </c>
-      <c r="H170" s="12">
+      <c r="H170" s="11">
         <v>11581.75</v>
       </c>
       <c r="I170" s="3"/>
@@ -7904,25 +7915,25 @@
       <c r="A171" s="4">
         <v>2013.0</v>
       </c>
-      <c r="B171" s="8" t="s">
+      <c r="B171" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C171" s="10">
+      <c r="C171" s="9">
         <v>887.85</v>
       </c>
-      <c r="D171" s="13">
+      <c r="D171" s="12">
         <v>80405.94</v>
       </c>
-      <c r="E171" s="10">
+      <c r="E171" s="9">
         <v>56.27</v>
       </c>
-      <c r="F171" s="10">
+      <c r="F171" s="9">
         <v>45.07</v>
       </c>
-      <c r="G171" s="10">
+      <c r="G171" s="9">
         <v>50.93</v>
       </c>
-      <c r="H171" s="13">
+      <c r="H171" s="12">
         <v>11587.23</v>
       </c>
       <c r="I171" s="3"/>
@@ -7948,13 +7959,13 @@
       <c r="A172" s="4">
         <v>2013.0</v>
       </c>
-      <c r="B172" s="5" t="s">
+      <c r="B172" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C172" s="7">
         <v>891.18</v>
       </c>
-      <c r="D172" s="12">
+      <c r="D172" s="11">
         <v>80889.73</v>
       </c>
       <c r="E172" s="7">
@@ -7966,7 +7977,7 @@
       <c r="G172" s="7">
         <v>60.0</v>
       </c>
-      <c r="H172" s="12">
+      <c r="H172" s="11">
         <v>11379.33</v>
       </c>
       <c r="I172" s="3"/>
@@ -7992,25 +8003,25 @@
       <c r="A173" s="4">
         <v>2013.0</v>
       </c>
-      <c r="B173" s="8" t="s">
+      <c r="B173" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C173" s="10">
+      <c r="C173" s="9">
         <v>867.45</v>
       </c>
-      <c r="D173" s="13">
+      <c r="D173" s="12">
         <v>81071.18</v>
       </c>
-      <c r="E173" s="10">
+      <c r="E173" s="9">
         <v>62.81</v>
       </c>
-      <c r="F173" s="10">
+      <c r="F173" s="9">
         <v>50.7</v>
       </c>
-      <c r="G173" s="10">
+      <c r="G173" s="9">
         <v>59.67</v>
       </c>
-      <c r="H173" s="13">
+      <c r="H173" s="12">
         <v>11507.87</v>
       </c>
       <c r="I173" s="3"/>
@@ -8036,13 +8047,13 @@
       <c r="A174" s="4">
         <v>2013.0</v>
       </c>
-      <c r="B174" s="5" t="s">
+      <c r="B174" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C174" s="7">
         <v>882.61</v>
       </c>
-      <c r="D174" s="12">
+      <c r="D174" s="11">
         <v>81891.45</v>
       </c>
       <c r="E174" s="7">
@@ -8054,7 +8065,7 @@
       <c r="G174" s="7">
         <v>65.12</v>
       </c>
-      <c r="H174" s="12">
+      <c r="H174" s="11">
         <v>11631.34</v>
       </c>
       <c r="I174" s="3"/>
@@ -8080,25 +8091,25 @@
       <c r="A175" s="4">
         <v>2013.0</v>
       </c>
-      <c r="B175" s="8" t="s">
+      <c r="B175" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C175" s="10">
+      <c r="C175" s="9">
         <v>882.42</v>
       </c>
-      <c r="D175" s="13">
+      <c r="D175" s="12">
         <v>81711.69</v>
       </c>
-      <c r="E175" s="10">
+      <c r="E175" s="9">
         <v>68.38</v>
       </c>
-      <c r="F175" s="10">
+      <c r="F175" s="9">
         <v>53.94</v>
       </c>
-      <c r="G175" s="10">
+      <c r="G175" s="9">
         <v>58.53</v>
       </c>
-      <c r="H175" s="13">
+      <c r="H175" s="12">
         <v>11680.43</v>
       </c>
       <c r="I175" s="3"/>
@@ -8124,13 +8135,13 @@
       <c r="A176" s="4">
         <v>2013.0</v>
       </c>
-      <c r="B176" s="5" t="s">
+      <c r="B176" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C176" s="7">
         <v>862.32</v>
       </c>
-      <c r="D176" s="12">
+      <c r="D176" s="11">
         <v>80379.22</v>
       </c>
       <c r="E176" s="7">
@@ -8142,7 +8153,7 @@
       <c r="G176" s="7">
         <v>54.58</v>
       </c>
-      <c r="H176" s="12">
+      <c r="H176" s="11">
         <v>11452.34</v>
       </c>
       <c r="I176" s="3"/>
@@ -8168,25 +8179,25 @@
       <c r="A177" s="4">
         <v>2013.0</v>
       </c>
-      <c r="B177" s="8" t="s">
+      <c r="B177" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C177" s="10">
+      <c r="C177" s="9">
         <v>783.41</v>
       </c>
-      <c r="D177" s="13">
+      <c r="D177" s="12">
         <v>79142.76</v>
       </c>
-      <c r="E177" s="10">
+      <c r="E177" s="9">
         <v>48.36</v>
       </c>
-      <c r="F177" s="10">
+      <c r="F177" s="9">
         <v>44.21</v>
       </c>
-      <c r="G177" s="10">
+      <c r="G177" s="9">
         <v>47.08</v>
       </c>
-      <c r="H177" s="13">
+      <c r="H177" s="12">
         <v>11513.59</v>
       </c>
       <c r="I177" s="3"/>
@@ -8212,13 +8223,13 @@
       <c r="A178" s="4">
         <v>2013.0</v>
       </c>
-      <c r="B178" s="5" t="s">
+      <c r="B178" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C178" s="7">
         <v>882.28</v>
       </c>
-      <c r="D178" s="12">
+      <c r="D178" s="11">
         <v>81839.66</v>
       </c>
       <c r="E178" s="7">
@@ -8230,7 +8241,7 @@
       <c r="G178" s="7">
         <v>65.81</v>
       </c>
-      <c r="H178" s="12">
+      <c r="H178" s="11">
         <v>11513.59</v>
       </c>
       <c r="I178" s="3"/>
@@ -8256,25 +8267,25 @@
       <c r="A179" s="4">
         <v>2013.0</v>
       </c>
-      <c r="B179" s="8" t="s">
+      <c r="B179" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C179" s="10">
+      <c r="C179" s="9">
         <v>885.72</v>
       </c>
-      <c r="D179" s="13">
+      <c r="D179" s="12">
         <v>82484.98</v>
       </c>
-      <c r="E179" s="10">
+      <c r="E179" s="9">
         <v>71.73</v>
       </c>
-      <c r="F179" s="10">
+      <c r="F179" s="9">
         <v>58.16</v>
       </c>
-      <c r="G179" s="10">
+      <c r="G179" s="9">
         <v>68.76</v>
       </c>
-      <c r="H179" s="13">
+      <c r="H179" s="12">
         <v>11666.51</v>
       </c>
       <c r="I179" s="3"/>
@@ -8300,13 +8311,13 @@
       <c r="A180" s="4">
         <v>2013.0</v>
       </c>
-      <c r="B180" s="5" t="s">
+      <c r="B180" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C180" s="7">
         <v>885.74</v>
       </c>
-      <c r="D180" s="12">
+      <c r="D180" s="11">
         <v>82492.2</v>
       </c>
       <c r="E180" s="7">
@@ -8318,7 +8329,7 @@
       <c r="G180" s="7">
         <v>62.25</v>
       </c>
-      <c r="H180" s="12">
+      <c r="H180" s="11">
         <v>11510.48</v>
       </c>
       <c r="I180" s="3"/>
@@ -8344,25 +8355,25 @@
       <c r="A181" s="4">
         <v>2013.0</v>
       </c>
-      <c r="B181" s="8" t="s">
+      <c r="B181" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C181" s="10">
+      <c r="C181" s="9">
         <v>878.4</v>
       </c>
-      <c r="D181" s="13">
+      <c r="D181" s="12">
         <v>82240.98</v>
       </c>
-      <c r="E181" s="10">
+      <c r="E181" s="9">
         <v>57.05</v>
       </c>
-      <c r="F181" s="10">
+      <c r="F181" s="9">
         <v>47.78</v>
       </c>
-      <c r="G181" s="10">
+      <c r="G181" s="9">
         <v>63.85</v>
       </c>
-      <c r="H181" s="13">
+      <c r="H181" s="12">
         <v>11331.34</v>
       </c>
       <c r="I181" s="3"/>
@@ -8385,28 +8396,28 @@
       <c r="Z181" s="3"/>
     </row>
     <row r="182">
-      <c r="A182" s="11">
+      <c r="A182" s="10">
         <v>2014.0</v>
       </c>
-      <c r="B182" s="8" t="s">
+      <c r="B182" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C182" s="10">
+      <c r="C182" s="9">
         <v>871.08</v>
       </c>
-      <c r="D182" s="13">
+      <c r="D182" s="12">
         <v>81459.45</v>
       </c>
-      <c r="E182" s="10">
+      <c r="E182" s="9">
         <v>53.34</v>
       </c>
-      <c r="F182" s="10">
+      <c r="F182" s="9">
         <v>42.74</v>
       </c>
-      <c r="G182" s="10">
+      <c r="G182" s="9">
         <v>48.72</v>
       </c>
-      <c r="H182" s="13">
+      <c r="H182" s="12">
         <v>11330.44</v>
       </c>
       <c r="I182" s="3"/>
@@ -8429,16 +8440,16 @@
       <c r="Z182" s="3"/>
     </row>
     <row r="183">
-      <c r="A183" s="11">
+      <c r="A183" s="10">
         <v>2014.0</v>
       </c>
-      <c r="B183" s="5" t="s">
+      <c r="B183" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C183" s="7">
         <v>864.84</v>
       </c>
-      <c r="D183" s="12">
+      <c r="D183" s="11">
         <v>81458.68</v>
       </c>
       <c r="E183" s="7">
@@ -8450,7 +8461,7 @@
       <c r="G183" s="7">
         <v>59.09</v>
       </c>
-      <c r="H183" s="12">
+      <c r="H183" s="11">
         <v>11187.68</v>
       </c>
       <c r="I183" s="3"/>
@@ -8473,28 +8484,28 @@
       <c r="Z183" s="3"/>
     </row>
     <row r="184">
-      <c r="A184" s="11">
+      <c r="A184" s="10">
         <v>2014.0</v>
       </c>
-      <c r="B184" s="8" t="s">
+      <c r="B184" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C184" s="10">
+      <c r="C184" s="9">
         <v>874.69</v>
       </c>
-      <c r="D184" s="13">
+      <c r="D184" s="12">
         <v>81715.97</v>
       </c>
-      <c r="E184" s="10">
+      <c r="E184" s="9">
         <v>67.78</v>
       </c>
-      <c r="F184" s="10">
+      <c r="F184" s="9">
         <v>54.62</v>
       </c>
-      <c r="G184" s="10">
+      <c r="G184" s="9">
         <v>65.82</v>
       </c>
-      <c r="H184" s="13">
+      <c r="H184" s="12">
         <v>11276.17</v>
       </c>
       <c r="I184" s="3"/>
@@ -8517,16 +8528,16 @@
       <c r="Z184" s="3"/>
     </row>
     <row r="185">
-      <c r="A185" s="11">
+      <c r="A185" s="10">
         <v>2014.0</v>
       </c>
-      <c r="B185" s="5" t="s">
+      <c r="B185" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C185" s="7">
         <v>862.55</v>
       </c>
-      <c r="D185" s="12">
+      <c r="D185" s="11">
         <v>81495.66</v>
       </c>
       <c r="E185" s="7">
@@ -8538,7 +8549,7 @@
       <c r="G185" s="7">
         <v>68.15</v>
       </c>
-      <c r="H185" s="12">
+      <c r="H185" s="11">
         <v>11288.14</v>
       </c>
       <c r="I185" s="3"/>
@@ -8561,28 +8572,28 @@
       <c r="Z185" s="3"/>
     </row>
     <row r="186">
-      <c r="A186" s="11">
+      <c r="A186" s="10">
         <v>2014.0</v>
       </c>
-      <c r="B186" s="8" t="s">
+      <c r="B186" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C186" s="10">
+      <c r="C186" s="9">
         <v>871.36</v>
       </c>
-      <c r="D186" s="13">
+      <c r="D186" s="12">
         <v>81432.27</v>
       </c>
-      <c r="E186" s="10">
+      <c r="E186" s="9">
         <v>75.09</v>
       </c>
-      <c r="F186" s="10">
+      <c r="F186" s="9">
         <v>62.4</v>
       </c>
-      <c r="G186" s="10">
+      <c r="G186" s="9">
         <v>72.68</v>
       </c>
-      <c r="H186" s="13">
+      <c r="H186" s="12">
         <v>11294.74</v>
       </c>
       <c r="I186" s="3"/>
@@ -8605,16 +8616,16 @@
       <c r="Z186" s="3"/>
     </row>
     <row r="187">
-      <c r="A187" s="11">
+      <c r="A187" s="10">
         <v>2014.0</v>
       </c>
-      <c r="B187" s="5" t="s">
+      <c r="B187" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C187" s="7">
         <v>864.4</v>
       </c>
-      <c r="D187" s="12">
+      <c r="D187" s="11">
         <v>81285.98</v>
       </c>
       <c r="E187" s="7">
@@ -8626,7 +8637,7 @@
       <c r="G187" s="7">
         <v>65.61</v>
       </c>
-      <c r="H187" s="12">
+      <c r="H187" s="11">
         <v>11228.35</v>
       </c>
       <c r="I187" s="3"/>
@@ -8649,28 +8660,28 @@
       <c r="Z187" s="3"/>
     </row>
     <row r="188">
-      <c r="A188" s="11">
+      <c r="A188" s="10">
         <v>2014.0</v>
       </c>
-      <c r="B188" s="8" t="s">
+      <c r="B188" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C188" s="10">
+      <c r="C188" s="9">
         <v>805.32</v>
       </c>
-      <c r="D188" s="13">
+      <c r="D188" s="12">
         <v>79455.31</v>
       </c>
-      <c r="E188" s="10">
+      <c r="E188" s="9">
         <v>63.46</v>
       </c>
-      <c r="F188" s="10">
+      <c r="F188" s="9">
         <v>55.47</v>
       </c>
-      <c r="G188" s="10">
+      <c r="G188" s="9">
         <v>62.12</v>
       </c>
-      <c r="H188" s="13">
+      <c r="H188" s="12">
         <v>10873.22</v>
       </c>
       <c r="I188" s="3"/>
@@ -8693,16 +8704,16 @@
       <c r="Z188" s="3"/>
     </row>
     <row r="189">
-      <c r="A189" s="11">
+      <c r="A189" s="10">
         <v>2014.0</v>
       </c>
-      <c r="B189" s="5" t="s">
+      <c r="B189" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C189" s="7">
         <v>681.55</v>
       </c>
-      <c r="D189" s="12">
+      <c r="D189" s="11">
         <v>76875.49</v>
       </c>
       <c r="E189" s="7">
@@ -8714,7 +8725,7 @@
       <c r="G189" s="7">
         <v>53.11</v>
       </c>
-      <c r="H189" s="12">
+      <c r="H189" s="11">
         <v>10699.7</v>
       </c>
       <c r="I189" s="3"/>
@@ -8737,28 +8748,28 @@
       <c r="Z189" s="3"/>
     </row>
     <row r="190">
-      <c r="A190" s="11">
+      <c r="A190" s="10">
         <v>2014.0</v>
       </c>
-      <c r="B190" s="8" t="s">
+      <c r="B190" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C190" s="10">
+      <c r="C190" s="9">
         <v>850.0</v>
       </c>
-      <c r="D190" s="13">
+      <c r="D190" s="12">
         <v>81475.12</v>
       </c>
-      <c r="E190" s="10">
+      <c r="E190" s="9">
         <v>78.9</v>
       </c>
-      <c r="F190" s="10">
+      <c r="F190" s="9">
         <v>63.31</v>
       </c>
-      <c r="G190" s="10">
+      <c r="G190" s="9">
         <v>71.2</v>
       </c>
-      <c r="H190" s="13">
+      <c r="H190" s="12">
         <v>11236.74</v>
       </c>
       <c r="I190" s="3"/>
@@ -8781,16 +8792,16 @@
       <c r="Z190" s="3"/>
     </row>
     <row r="191">
-      <c r="A191" s="11">
+      <c r="A191" s="10">
         <v>2014.0</v>
       </c>
-      <c r="B191" s="5" t="s">
+      <c r="B191" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C191" s="7">
         <v>880.0</v>
       </c>
-      <c r="D191" s="12">
+      <c r="D191" s="11">
         <v>82431.77</v>
       </c>
       <c r="E191" s="7">
@@ -8802,7 +8813,7 @@
       <c r="G191" s="7">
         <v>75.03</v>
       </c>
-      <c r="H191" s="12">
+      <c r="H191" s="11">
         <v>11515.46</v>
       </c>
       <c r="I191" s="3"/>
@@ -8825,28 +8836,28 @@
       <c r="Z191" s="3"/>
     </row>
     <row r="192">
-      <c r="A192" s="11">
+      <c r="A192" s="10">
         <v>2014.0</v>
       </c>
-      <c r="B192" s="8" t="s">
+      <c r="B192" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C192" s="10">
+      <c r="C192" s="9">
         <v>890.84</v>
       </c>
-      <c r="D192" s="13">
+      <c r="D192" s="12">
         <v>82251.68</v>
       </c>
-      <c r="E192" s="10">
+      <c r="E192" s="9">
         <v>68.13</v>
       </c>
-      <c r="F192" s="10">
+      <c r="F192" s="9">
         <v>53.21</v>
       </c>
-      <c r="G192" s="10">
+      <c r="G192" s="9">
         <v>63.57</v>
       </c>
-      <c r="H192" s="13">
+      <c r="H192" s="12">
         <v>11199.63</v>
       </c>
       <c r="I192" s="3"/>
@@ -8869,16 +8880,16 @@
       <c r="Z192" s="3"/>
     </row>
     <row r="193">
-      <c r="A193" s="11">
+      <c r="A193" s="10">
         <v>2014.0</v>
       </c>
-      <c r="B193" s="5" t="s">
+      <c r="B193" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C193" s="7">
         <v>874.94</v>
       </c>
-      <c r="D193" s="12">
+      <c r="D193" s="11">
         <v>81765.12</v>
       </c>
       <c r="E193" s="7">
@@ -8890,7 +8901,7 @@
       <c r="G193" s="7">
         <v>67.86</v>
       </c>
-      <c r="H193" s="12">
+      <c r="H193" s="11">
         <v>11225.95</v>
       </c>
       <c r="I193" s="3"/>
@@ -8916,13 +8927,13 @@
       <c r="A194" s="4">
         <v>2015.0</v>
       </c>
-      <c r="B194" s="5" t="s">
+      <c r="B194" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C194" s="7">
         <v>836.36</v>
       </c>
-      <c r="D194" s="12">
+      <c r="D194" s="11">
         <v>81944.53</v>
       </c>
       <c r="E194" s="7">
@@ -8934,7 +8945,7 @@
       <c r="G194" s="7">
         <v>57.22</v>
       </c>
-      <c r="H194" s="12">
+      <c r="H194" s="11">
         <v>10902.1</v>
       </c>
       <c r="I194" s="3"/>
@@ -8960,25 +8971,25 @@
       <c r="A195" s="4">
         <v>2015.0</v>
       </c>
-      <c r="B195" s="8" t="s">
+      <c r="B195" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C195" s="10">
+      <c r="C195" s="9">
         <v>806.95</v>
       </c>
-      <c r="D195" s="13">
+      <c r="D195" s="12">
         <v>81639.55</v>
       </c>
-      <c r="E195" s="10">
+      <c r="E195" s="9">
         <v>63.29</v>
       </c>
-      <c r="F195" s="10">
+      <c r="F195" s="9">
         <v>51.21</v>
       </c>
-      <c r="G195" s="10">
+      <c r="G195" s="9">
         <v>64.25</v>
       </c>
-      <c r="H195" s="13">
+      <c r="H195" s="12">
         <v>11052.14</v>
       </c>
       <c r="I195" s="3"/>
@@ -9004,7 +9015,7 @@
       <c r="A196" s="4">
         <v>2015.0</v>
       </c>
-      <c r="B196" s="5" t="s">
+      <c r="B196" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C196" s="7">
@@ -9048,25 +9059,25 @@
       <c r="A197" s="4">
         <v>2015.0</v>
       </c>
-      <c r="B197" s="8" t="s">
+      <c r="B197" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C197" s="10">
+      <c r="C197" s="9">
         <v>816.62</v>
       </c>
-      <c r="D197" s="13">
+      <c r="D197" s="12">
         <v>82065.05</v>
       </c>
-      <c r="E197" s="10">
+      <c r="E197" s="9">
         <v>75.56</v>
       </c>
-      <c r="F197" s="10">
+      <c r="F197" s="9">
         <v>63.9</v>
       </c>
-      <c r="G197" s="10">
+      <c r="G197" s="9">
         <v>76.26</v>
       </c>
-      <c r="H197" s="13">
+      <c r="H197" s="12">
         <v>11191.99</v>
       </c>
       <c r="I197" s="3"/>
@@ -9092,13 +9103,13 @@
       <c r="A198" s="4">
         <v>2015.0</v>
       </c>
-      <c r="B198" s="5" t="s">
+      <c r="B198" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C198" s="7">
         <v>807.01</v>
       </c>
-      <c r="D198" s="12">
+      <c r="D198" s="11">
         <v>81106.29</v>
       </c>
       <c r="E198" s="7">
@@ -9110,7 +9121,7 @@
       <c r="G198" s="7">
         <v>77.34</v>
       </c>
-      <c r="H198" s="12">
+      <c r="H198" s="11">
         <v>10983.06</v>
       </c>
       <c r="I198" s="3"/>
@@ -9136,25 +9147,25 @@
       <c r="A199" s="4">
         <v>2015.0</v>
       </c>
-      <c r="B199" s="8" t="s">
+      <c r="B199" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C199" s="10">
+      <c r="C199" s="9">
         <v>791.51</v>
       </c>
-      <c r="D199" s="13">
+      <c r="D199" s="12">
         <v>80940.88</v>
       </c>
-      <c r="E199" s="10">
+      <c r="E199" s="9">
         <v>75.82</v>
       </c>
-      <c r="F199" s="10">
+      <c r="F199" s="9">
         <v>62.73</v>
       </c>
-      <c r="G199" s="10">
+      <c r="G199" s="9">
         <v>69.73</v>
       </c>
-      <c r="H199" s="13">
+      <c r="H199" s="12">
         <v>11090.9</v>
       </c>
       <c r="I199" s="3"/>
@@ -9180,7 +9191,7 @@
       <c r="A200" s="4">
         <v>2015.0</v>
       </c>
-      <c r="B200" s="5" t="s">
+      <c r="B200" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C200" s="7">
@@ -9224,25 +9235,25 @@
       <c r="A201" s="4">
         <v>2015.0</v>
       </c>
-      <c r="B201" s="8" t="s">
+      <c r="B201" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C201" s="10">
+      <c r="C201" s="9">
         <v>698.0</v>
       </c>
-      <c r="D201" s="9">
+      <c r="D201" s="8">
         <v>77631.0</v>
       </c>
-      <c r="E201" s="10">
+      <c r="E201" s="9">
         <v>58.5</v>
       </c>
-      <c r="F201" s="10">
+      <c r="F201" s="9">
         <v>55.88</v>
       </c>
-      <c r="G201" s="10">
+      <c r="G201" s="9">
         <v>60.19</v>
       </c>
-      <c r="H201" s="9">
+      <c r="H201" s="8">
         <v>10404.0</v>
       </c>
       <c r="I201" s="3"/>
@@ -9268,7 +9279,7 @@
       <c r="A202" s="4">
         <v>2015.0</v>
       </c>
-      <c r="B202" s="5" t="s">
+      <c r="B202" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C202" s="7">
@@ -9312,25 +9323,25 @@
       <c r="A203" s="4">
         <v>2015.0</v>
       </c>
-      <c r="B203" s="8" t="s">
+      <c r="B203" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C203" s="10">
+      <c r="C203" s="9">
         <v>806.0</v>
       </c>
-      <c r="D203" s="9">
+      <c r="D203" s="8">
         <v>81361.0</v>
       </c>
-      <c r="E203" s="10">
+      <c r="E203" s="9">
         <v>85.98</v>
       </c>
-      <c r="F203" s="10">
+      <c r="F203" s="9">
         <v>70.29</v>
       </c>
-      <c r="G203" s="10">
+      <c r="G203" s="9">
         <v>76.34</v>
       </c>
-      <c r="H203" s="9">
+      <c r="H203" s="8">
         <v>11085.0</v>
       </c>
       <c r="I203" s="3"/>
@@ -9356,7 +9367,7 @@
       <c r="A204" s="4">
         <v>2015.0</v>
       </c>
-      <c r="B204" s="5" t="s">
+      <c r="B204" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C204" s="7">
@@ -9400,25 +9411,25 @@
       <c r="A205" s="4">
         <v>2015.0</v>
       </c>
-      <c r="B205" s="8" t="s">
+      <c r="B205" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C205" s="10">
+      <c r="C205" s="9">
         <v>786.0</v>
       </c>
-      <c r="D205" s="9">
+      <c r="D205" s="8">
         <v>81447.0</v>
       </c>
-      <c r="E205" s="10">
+      <c r="E205" s="9">
         <v>63.12</v>
       </c>
-      <c r="F205" s="10">
+      <c r="F205" s="9">
         <v>55.31</v>
       </c>
-      <c r="G205" s="10">
+      <c r="G205" s="9">
         <v>61.47</v>
       </c>
-      <c r="H205" s="9">
+      <c r="H205" s="8">
         <v>11028.0</v>
       </c>
       <c r="I205" s="3"/>
@@ -9441,28 +9452,28 @@
       <c r="Z205" s="3"/>
     </row>
     <row r="206">
-      <c r="A206" s="11">
+      <c r="A206" s="10">
         <v>2016.0</v>
       </c>
-      <c r="B206" s="8" t="s">
+      <c r="B206" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C206" s="10">
+      <c r="C206" s="9">
         <v>753.0</v>
       </c>
-      <c r="D206" s="9">
+      <c r="D206" s="8">
         <v>81402.0</v>
       </c>
-      <c r="E206" s="10">
+      <c r="E206" s="9">
         <v>59.5</v>
       </c>
-      <c r="F206" s="10">
+      <c r="F206" s="9">
         <v>49.53</v>
       </c>
-      <c r="G206" s="10">
+      <c r="G206" s="9">
         <v>55.28</v>
       </c>
-      <c r="H206" s="9">
+      <c r="H206" s="8">
         <v>10983.0</v>
       </c>
       <c r="I206" s="3"/>
@@ -9485,10 +9496,10 @@
       <c r="Z206" s="3"/>
     </row>
     <row r="207">
-      <c r="A207" s="11">
+      <c r="A207" s="10">
         <v>2016.0</v>
       </c>
-      <c r="B207" s="5" t="s">
+      <c r="B207" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C207" s="7">
@@ -9529,28 +9540,28 @@
       <c r="Z207" s="3"/>
     </row>
     <row r="208">
-      <c r="A208" s="11">
+      <c r="A208" s="10">
         <v>2016.0</v>
       </c>
-      <c r="B208" s="8" t="s">
+      <c r="B208" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C208" s="10">
+      <c r="C208" s="9">
         <v>759.0</v>
       </c>
-      <c r="D208" s="9">
+      <c r="D208" s="8">
         <v>81117.0</v>
       </c>
-      <c r="E208" s="10">
+      <c r="E208" s="9">
         <v>71.05</v>
       </c>
-      <c r="F208" s="10">
+      <c r="F208" s="9">
         <v>58.63</v>
       </c>
-      <c r="G208" s="10">
+      <c r="G208" s="9">
         <v>69.3</v>
       </c>
-      <c r="H208" s="9">
+      <c r="H208" s="8">
         <v>11167.0</v>
       </c>
       <c r="I208" s="3"/>
@@ -9573,10 +9584,10 @@
       <c r="Z208" s="3"/>
     </row>
     <row r="209">
-      <c r="A209" s="11">
+      <c r="A209" s="10">
         <v>2016.0</v>
       </c>
-      <c r="B209" s="5" t="s">
+      <c r="B209" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C209" s="7">
@@ -9617,28 +9628,28 @@
       <c r="Z209" s="3"/>
     </row>
     <row r="210">
-      <c r="A210" s="11">
+      <c r="A210" s="10">
         <v>2016.0</v>
       </c>
-      <c r="B210" s="8" t="s">
+      <c r="B210" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C210" s="10">
+      <c r="C210" s="9">
         <v>774.0</v>
       </c>
-      <c r="D210" s="9">
+      <c r="D210" s="8">
         <v>81273.0</v>
       </c>
-      <c r="E210" s="10">
+      <c r="E210" s="9">
         <v>80.45</v>
       </c>
-      <c r="F210" s="10">
+      <c r="F210" s="9">
         <v>64.05</v>
       </c>
-      <c r="G210" s="10">
+      <c r="G210" s="9">
         <v>73.48</v>
       </c>
-      <c r="H210" s="9">
+      <c r="H210" s="8">
         <v>11435.0</v>
       </c>
       <c r="I210" s="3"/>
@@ -9661,10 +9672,10 @@
       <c r="Z210" s="3"/>
     </row>
     <row r="211">
-      <c r="A211" s="11">
+      <c r="A211" s="10">
         <v>2016.0</v>
       </c>
-      <c r="B211" s="5" t="s">
+      <c r="B211" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C211" s="7">
@@ -9705,28 +9716,28 @@
       <c r="Z211" s="3"/>
     </row>
     <row r="212">
-      <c r="A212" s="11">
+      <c r="A212" s="10">
         <v>2016.0</v>
       </c>
-      <c r="B212" s="8" t="s">
+      <c r="B212" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C212" s="10">
+      <c r="C212" s="9">
         <v>735.0</v>
       </c>
-      <c r="D212" s="9">
+      <c r="D212" s="8">
         <v>80170.0</v>
       </c>
-      <c r="E212" s="10">
+      <c r="E212" s="9">
         <v>67.97</v>
       </c>
-      <c r="F212" s="10">
+      <c r="F212" s="9">
         <v>60.65</v>
       </c>
-      <c r="G212" s="10">
+      <c r="G212" s="9">
         <v>63.6</v>
       </c>
-      <c r="H212" s="9">
+      <c r="H212" s="8">
         <v>11202.0</v>
       </c>
       <c r="I212" s="3"/>
@@ -9749,10 +9760,10 @@
       <c r="Z212" s="3"/>
     </row>
     <row r="213">
-      <c r="A213" s="11">
+      <c r="A213" s="10">
         <v>2016.0</v>
       </c>
-      <c r="B213" s="5" t="s">
+      <c r="B213" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C213" s="7">
@@ -9793,28 +9804,28 @@
       <c r="Z213" s="3"/>
     </row>
     <row r="214">
-      <c r="A214" s="11">
+      <c r="A214" s="10">
         <v>2016.0</v>
       </c>
-      <c r="B214" s="8" t="s">
+      <c r="B214" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C214" s="10">
+      <c r="C214" s="9">
         <v>763.0</v>
       </c>
-      <c r="D214" s="9">
+      <c r="D214" s="8">
         <v>81638.0</v>
       </c>
-      <c r="E214" s="10">
+      <c r="E214" s="9">
         <v>82.16</v>
       </c>
-      <c r="F214" s="10">
+      <c r="F214" s="9">
         <v>67.83</v>
       </c>
-      <c r="G214" s="10">
+      <c r="G214" s="9">
         <v>74.31</v>
       </c>
-      <c r="H214" s="9">
+      <c r="H214" s="8">
         <v>11299.0</v>
       </c>
       <c r="I214" s="3"/>
@@ -9837,10 +9848,10 @@
       <c r="Z214" s="3"/>
     </row>
     <row r="215">
-      <c r="A215" s="11">
+      <c r="A215" s="10">
         <v>2016.0</v>
       </c>
-      <c r="B215" s="5" t="s">
+      <c r="B215" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C215" s="7">
@@ -9881,28 +9892,28 @@
       <c r="Z215" s="3"/>
     </row>
     <row r="216">
-      <c r="A216" s="11">
+      <c r="A216" s="10">
         <v>2016.0</v>
       </c>
-      <c r="B216" s="8" t="s">
+      <c r="B216" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C216" s="10">
+      <c r="C216" s="9">
         <v>780.0</v>
       </c>
-      <c r="D216" s="9">
+      <c r="D216" s="8">
         <v>82710.0</v>
       </c>
-      <c r="E216" s="10">
+      <c r="E216" s="9">
         <v>73.43</v>
       </c>
-      <c r="F216" s="10">
+      <c r="F216" s="9">
         <v>58.32</v>
       </c>
-      <c r="G216" s="10">
+      <c r="G216" s="9">
         <v>70.6</v>
       </c>
-      <c r="H216" s="9">
+      <c r="H216" s="8">
         <v>11390.0</v>
       </c>
       <c r="I216" s="3"/>
@@ -9925,10 +9936,10 @@
       <c r="Z216" s="3"/>
     </row>
     <row r="217">
-      <c r="A217" s="11">
+      <c r="A217" s="10">
         <v>2016.0</v>
       </c>
-      <c r="B217" s="5" t="s">
+      <c r="B217" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C217" s="7">
@@ -9972,7 +9983,7 @@
       <c r="A218" s="4">
         <v>2017.0</v>
       </c>
-      <c r="B218" s="5" t="s">
+      <c r="B218" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C218" s="7">
@@ -10016,25 +10027,25 @@
       <c r="A219" s="4">
         <v>2017.0</v>
       </c>
-      <c r="B219" s="8" t="s">
+      <c r="B219" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C219" s="10">
+      <c r="C219" s="9">
         <v>807.0</v>
       </c>
-      <c r="D219" s="9">
+      <c r="D219" s="8">
         <v>83243.0</v>
       </c>
-      <c r="E219" s="10">
+      <c r="E219" s="9">
         <v>73.12</v>
       </c>
-      <c r="F219" s="10">
+      <c r="F219" s="9">
         <v>58.64</v>
       </c>
-      <c r="G219" s="10">
+      <c r="G219" s="9">
         <v>70.55</v>
       </c>
-      <c r="H219" s="9">
+      <c r="H219" s="8">
         <v>11953.0</v>
       </c>
       <c r="I219" s="3"/>
@@ -10060,7 +10071,7 @@
       <c r="A220" s="4">
         <v>2017.0</v>
       </c>
-      <c r="B220" s="5" t="s">
+      <c r="B220" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C220" s="7">
@@ -10104,25 +10115,25 @@
       <c r="A221" s="4">
         <v>2017.0</v>
       </c>
-      <c r="B221" s="8" t="s">
+      <c r="B221" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C221" s="10">
+      <c r="C221" s="9">
         <v>815.0</v>
       </c>
-      <c r="D221" s="9">
+      <c r="D221" s="8">
         <v>84465.0</v>
       </c>
-      <c r="E221" s="10">
+      <c r="E221" s="9">
         <v>78.41</v>
       </c>
-      <c r="F221" s="10">
+      <c r="F221" s="9">
         <v>67.79</v>
       </c>
-      <c r="G221" s="10">
+      <c r="G221" s="9">
         <v>75.31</v>
       </c>
-      <c r="H221" s="9">
+      <c r="H221" s="8">
         <v>11771.0</v>
       </c>
       <c r="I221" s="3"/>
@@ -10148,7 +10159,7 @@
       <c r="A222" s="4">
         <v>2017.0</v>
       </c>
-      <c r="B222" s="5" t="s">
+      <c r="B222" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C222" s="7">
@@ -10192,25 +10203,25 @@
       <c r="A223" s="4">
         <v>2017.0</v>
       </c>
-      <c r="B223" s="8" t="s">
+      <c r="B223" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C223" s="10">
+      <c r="C223" s="9">
         <v>817.0</v>
       </c>
-      <c r="D223" s="9">
+      <c r="D223" s="8">
         <v>84688.0</v>
       </c>
-      <c r="E223" s="10">
+      <c r="E223" s="9">
         <v>81.71</v>
       </c>
-      <c r="F223" s="10">
+      <c r="F223" s="9">
         <v>66.56</v>
       </c>
-      <c r="G223" s="10">
+      <c r="G223" s="9">
         <v>71.27</v>
       </c>
-      <c r="H223" s="9">
+      <c r="H223" s="8">
         <v>11982.0</v>
       </c>
       <c r="I223" s="3"/>
@@ -10236,7 +10247,7 @@
       <c r="A224" s="4">
         <v>2017.0</v>
       </c>
-      <c r="B224" s="5" t="s">
+      <c r="B224" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C224" s="7">
@@ -10280,25 +10291,25 @@
       <c r="A225" s="4">
         <v>2017.0</v>
       </c>
-      <c r="B225" s="8" t="s">
+      <c r="B225" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C225" s="10">
+      <c r="C225" s="9">
         <v>695.0</v>
       </c>
-      <c r="D225" s="9">
+      <c r="D225" s="8">
         <v>80901.0</v>
       </c>
-      <c r="E225" s="10">
+      <c r="E225" s="9">
         <v>64.07</v>
       </c>
-      <c r="F225" s="10">
+      <c r="F225" s="9">
         <v>61.38</v>
       </c>
-      <c r="G225" s="10">
+      <c r="G225" s="9">
         <v>62.94</v>
       </c>
-      <c r="H225" s="9">
+      <c r="H225" s="8">
         <v>11209.0</v>
       </c>
       <c r="I225" s="3"/>
@@ -10324,7 +10335,7 @@
       <c r="A226" s="4">
         <v>2017.0</v>
       </c>
-      <c r="B226" s="5" t="s">
+      <c r="B226" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C226" s="7">
@@ -10368,25 +10379,25 @@
       <c r="A227" s="4">
         <v>2017.0</v>
       </c>
-      <c r="B227" s="8" t="s">
+      <c r="B227" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C227" s="10">
+      <c r="C227" s="9">
         <v>785.0</v>
       </c>
-      <c r="D227" s="9">
+      <c r="D227" s="8">
         <v>83747.0</v>
       </c>
-      <c r="E227" s="10">
+      <c r="E227" s="9">
         <v>82.4</v>
       </c>
-      <c r="F227" s="10">
+      <c r="F227" s="9">
         <v>66.91</v>
       </c>
-      <c r="G227" s="10">
+      <c r="G227" s="9">
         <v>74.61</v>
       </c>
-      <c r="H227" s="9">
+      <c r="H227" s="8">
         <v>11688.0</v>
       </c>
       <c r="I227" s="3"/>
@@ -10412,7 +10423,7 @@
       <c r="A228" s="4">
         <v>2017.0</v>
       </c>
-      <c r="B228" s="5" t="s">
+      <c r="B228" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C228" s="7">
@@ -10456,25 +10467,25 @@
       <c r="A229" s="4">
         <v>2017.0</v>
       </c>
-      <c r="B229" s="8" t="s">
+      <c r="B229" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C229" s="10">
+      <c r="C229" s="9">
         <v>815.0</v>
       </c>
-      <c r="D229" s="9">
+      <c r="D229" s="8">
         <v>83499.0</v>
       </c>
-      <c r="E229" s="10">
+      <c r="E229" s="9">
         <v>67.46</v>
       </c>
-      <c r="F229" s="10">
+      <c r="F229" s="9">
         <v>60.04</v>
       </c>
-      <c r="G229" s="10">
+      <c r="G229" s="9">
         <v>70.77</v>
       </c>
-      <c r="H229" s="9">
+      <c r="H229" s="8">
         <v>11654.0</v>
       </c>
       <c r="I229" s="3"/>
@@ -10497,28 +10508,28 @@
       <c r="Z229" s="3"/>
     </row>
     <row r="230">
-      <c r="A230" s="11">
+      <c r="A230" s="10">
         <v>2018.0</v>
       </c>
-      <c r="B230" s="8" t="s">
+      <c r="B230" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C230" s="10">
+      <c r="C230" s="9">
         <v>755.0</v>
       </c>
-      <c r="D230" s="9">
+      <c r="D230" s="8">
         <v>83555.0</v>
       </c>
-      <c r="E230" s="10">
+      <c r="E230" s="9">
         <v>68.15</v>
       </c>
-      <c r="F230" s="10">
+      <c r="F230" s="9">
         <v>55.3</v>
       </c>
-      <c r="G230" s="10">
+      <c r="G230" s="9">
         <v>60.54</v>
       </c>
-      <c r="H230" s="9">
+      <c r="H230" s="8">
         <v>11607.0</v>
       </c>
       <c r="I230" s="3"/>
@@ -10541,10 +10552,10 @@
       <c r="Z230" s="3"/>
     </row>
     <row r="231">
-      <c r="A231" s="11">
+      <c r="A231" s="10">
         <v>2018.0</v>
       </c>
-      <c r="B231" s="5" t="s">
+      <c r="B231" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C231" s="7">
@@ -10585,28 +10596,28 @@
       <c r="Z231" s="3"/>
     </row>
     <row r="232">
-      <c r="A232" s="11">
+      <c r="A232" s="10">
         <v>2018.0</v>
       </c>
-      <c r="B232" s="8" t="s">
+      <c r="B232" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C232" s="10">
+      <c r="C232" s="9">
         <v>763.0</v>
       </c>
-      <c r="D232" s="9">
+      <c r="D232" s="8">
         <v>84344.0</v>
       </c>
-      <c r="E232" s="10">
+      <c r="E232" s="9">
         <v>74.89</v>
       </c>
-      <c r="F232" s="10">
+      <c r="F232" s="9">
         <v>61.56</v>
       </c>
-      <c r="G232" s="10">
+      <c r="G232" s="9">
         <v>71.25</v>
       </c>
-      <c r="H232" s="9">
+      <c r="H232" s="8">
         <v>11552.0</v>
       </c>
       <c r="I232" s="3"/>
@@ -10629,10 +10640,10 @@
       <c r="Z232" s="3"/>
     </row>
     <row r="233">
-      <c r="A233" s="11">
+      <c r="A233" s="10">
         <v>2018.0</v>
       </c>
-      <c r="B233" s="5" t="s">
+      <c r="B233" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C233" s="7">
@@ -10673,28 +10684,28 @@
       <c r="Z233" s="3"/>
     </row>
     <row r="234">
-      <c r="A234" s="11">
+      <c r="A234" s="10">
         <v>2018.0</v>
       </c>
-      <c r="B234" s="8" t="s">
+      <c r="B234" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C234" s="10">
+      <c r="C234" s="9">
         <v>764.0</v>
       </c>
-      <c r="D234" s="9">
+      <c r="D234" s="8">
         <v>85468.0</v>
       </c>
-      <c r="E234" s="10">
+      <c r="E234" s="9">
         <v>81.88</v>
       </c>
-      <c r="F234" s="10">
+      <c r="F234" s="9">
         <v>66.32</v>
       </c>
-      <c r="G234" s="10">
+      <c r="G234" s="9">
         <v>76.19</v>
       </c>
-      <c r="H234" s="9">
+      <c r="H234" s="8">
         <v>11508.0</v>
       </c>
       <c r="I234" s="3"/>
@@ -10717,10 +10728,10 @@
       <c r="Z234" s="3"/>
     </row>
     <row r="235">
-      <c r="A235" s="11">
+      <c r="A235" s="10">
         <v>2018.0</v>
       </c>
-      <c r="B235" s="5" t="s">
+      <c r="B235" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C235" s="7">
@@ -10761,28 +10772,28 @@
       <c r="Z235" s="3"/>
     </row>
     <row r="236">
-      <c r="A236" s="11">
+      <c r="A236" s="10">
         <v>2018.0</v>
       </c>
-      <c r="B236" s="8" t="s">
+      <c r="B236" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C236" s="10">
+      <c r="C236" s="9">
         <v>793.0</v>
       </c>
-      <c r="D236" s="9">
+      <c r="D236" s="8">
         <v>86452.0</v>
       </c>
-      <c r="E236" s="10">
+      <c r="E236" s="9">
         <v>73.58</v>
       </c>
-      <c r="F236" s="10">
+      <c r="F236" s="9">
         <v>62.57</v>
       </c>
-      <c r="G236" s="10">
+      <c r="G236" s="9">
         <v>66.2</v>
       </c>
-      <c r="H236" s="9">
+      <c r="H236" s="8">
         <v>11646.0</v>
       </c>
       <c r="I236" s="3"/>
@@ -10805,10 +10816,10 @@
       <c r="Z236" s="3"/>
     </row>
     <row r="237">
-      <c r="A237" s="11">
+      <c r="A237" s="10">
         <v>2018.0</v>
       </c>
-      <c r="B237" s="5" t="s">
+      <c r="B237" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C237" s="7">
@@ -10849,28 +10860,28 @@
       <c r="Z237" s="3"/>
     </row>
     <row r="238">
-      <c r="A238" s="11">
+      <c r="A238" s="10">
         <v>2018.0</v>
       </c>
-      <c r="B238" s="8" t="s">
+      <c r="B238" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C238" s="10">
+      <c r="C238" s="9">
         <v>781.0</v>
       </c>
-      <c r="D238" s="9">
+      <c r="D238" s="8">
         <v>86395.0</v>
       </c>
-      <c r="E238" s="10">
+      <c r="E238" s="9">
         <v>83.0</v>
       </c>
-      <c r="F238" s="10">
+      <c r="F238" s="9">
         <v>66.76</v>
       </c>
-      <c r="G238" s="10">
+      <c r="G238" s="9">
         <v>73.5</v>
       </c>
-      <c r="H238" s="9">
+      <c r="H238" s="8">
         <v>11681.0</v>
       </c>
       <c r="I238" s="3"/>
@@ -10893,10 +10904,10 @@
       <c r="Z238" s="3"/>
     </row>
     <row r="239">
-      <c r="A239" s="11">
+      <c r="A239" s="10">
         <v>2018.0</v>
       </c>
-      <c r="B239" s="5" t="s">
+      <c r="B239" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C239" s="7">
@@ -10937,28 +10948,28 @@
       <c r="Z239" s="3"/>
     </row>
     <row r="240">
-      <c r="A240" s="11">
+      <c r="A240" s="10">
         <v>2018.0</v>
       </c>
-      <c r="B240" s="8" t="s">
+      <c r="B240" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C240" s="10">
+      <c r="C240" s="9">
         <v>797.0</v>
       </c>
-      <c r="D240" s="9">
+      <c r="D240" s="8">
         <v>86462.0</v>
       </c>
-      <c r="E240" s="10">
+      <c r="E240" s="9">
         <v>81.88</v>
       </c>
-      <c r="F240" s="10">
+      <c r="F240" s="9">
         <v>64.22</v>
       </c>
-      <c r="G240" s="10">
+      <c r="G240" s="9">
         <v>75.49</v>
       </c>
-      <c r="H240" s="9">
+      <c r="H240" s="8">
         <v>11669.0</v>
       </c>
       <c r="I240" s="3"/>
@@ -10981,10 +10992,10 @@
       <c r="Z240" s="3"/>
     </row>
     <row r="241">
-      <c r="A241" s="11">
+      <c r="A241" s="10">
         <v>2018.0</v>
       </c>
-      <c r="B241" s="5" t="s">
+      <c r="B241" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C241" s="7">
@@ -11028,7 +11039,7 @@
       <c r="A242" s="4">
         <v>2019.0</v>
       </c>
-      <c r="B242" s="5" t="s">
+      <c r="B242" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C242" s="7">
@@ -11072,25 +11083,25 @@
       <c r="A243" s="4">
         <v>2019.0</v>
       </c>
-      <c r="B243" s="8" t="s">
+      <c r="B243" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C243" s="10">
+      <c r="C243" s="9">
         <v>869.0</v>
       </c>
-      <c r="D243" s="9">
+      <c r="D243" s="8">
         <v>86608.0</v>
       </c>
-      <c r="E243" s="10">
+      <c r="E243" s="9">
         <v>75.71</v>
       </c>
-      <c r="F243" s="10">
+      <c r="F243" s="9">
         <v>59.52</v>
       </c>
-      <c r="G243" s="10">
+      <c r="G243" s="9">
         <v>66.96</v>
       </c>
-      <c r="H243" s="9">
+      <c r="H243" s="8">
         <v>11794.0</v>
       </c>
       <c r="I243" s="3"/>
@@ -11116,7 +11127,7 @@
       <c r="A244" s="4">
         <v>2019.0</v>
       </c>
-      <c r="B244" s="5" t="s">
+      <c r="B244" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C244" s="7">
@@ -11160,25 +11171,25 @@
       <c r="A245" s="4">
         <v>2019.0</v>
       </c>
-      <c r="B245" s="8" t="s">
+      <c r="B245" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C245" s="10">
+      <c r="C245" s="9">
         <v>900.0</v>
       </c>
-      <c r="D245" s="9">
+      <c r="D245" s="8">
         <v>89418.0</v>
       </c>
-      <c r="E245" s="10">
+      <c r="E245" s="9">
         <v>77.72</v>
       </c>
-      <c r="F245" s="10">
+      <c r="F245" s="9">
         <v>65.39</v>
       </c>
-      <c r="G245" s="10">
+      <c r="G245" s="9">
         <v>74.03</v>
       </c>
-      <c r="H245" s="9">
+      <c r="H245" s="8">
         <v>12457.0</v>
       </c>
       <c r="I245" s="3"/>
@@ -11204,7 +11215,7 @@
       <c r="A246" s="4">
         <v>2019.0</v>
       </c>
-      <c r="B246" s="5" t="s">
+      <c r="B246" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C246" s="7">
@@ -11248,25 +11259,25 @@
       <c r="A247" s="4">
         <v>2019.0</v>
       </c>
-      <c r="B247" s="8" t="s">
+      <c r="B247" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C247" s="10">
+      <c r="C247" s="9">
         <v>870.0</v>
       </c>
-      <c r="D247" s="9">
+      <c r="D247" s="8">
         <v>88365.0</v>
       </c>
-      <c r="E247" s="10">
+      <c r="E247" s="9">
         <v>85.92</v>
       </c>
-      <c r="F247" s="10">
+      <c r="F247" s="9">
         <v>69.12</v>
       </c>
-      <c r="G247" s="10">
+      <c r="G247" s="9">
         <v>75.11</v>
       </c>
-      <c r="H247" s="9">
+      <c r="H247" s="8">
         <v>12387.0</v>
       </c>
       <c r="I247" s="3"/>
@@ -11292,7 +11303,7 @@
       <c r="A248" s="4">
         <v>2019.0</v>
       </c>
-      <c r="B248" s="5" t="s">
+      <c r="B248" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C248" s="7">
@@ -11336,25 +11347,25 @@
       <c r="A249" s="4">
         <v>2019.0</v>
       </c>
-      <c r="B249" s="8" t="s">
+      <c r="B249" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C249" s="10">
+      <c r="C249" s="9">
         <v>681.0</v>
       </c>
-      <c r="D249" s="9">
+      <c r="D249" s="8">
         <v>83946.0</v>
       </c>
-      <c r="E249" s="10">
+      <c r="E249" s="9">
         <v>64.49</v>
       </c>
-      <c r="F249" s="10">
+      <c r="F249" s="9">
         <v>61.07</v>
       </c>
-      <c r="G249" s="10">
+      <c r="G249" s="9">
         <v>64.44</v>
       </c>
-      <c r="H249" s="9">
+      <c r="H249" s="8">
         <v>11959.0</v>
       </c>
       <c r="I249" s="3"/>
@@ -11380,7 +11391,7 @@
       <c r="A250" s="4">
         <v>2019.0</v>
       </c>
-      <c r="B250" s="5" t="s">
+      <c r="B250" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C250" s="7">
@@ -11424,25 +11435,25 @@
       <c r="A251" s="4">
         <v>2019.0</v>
       </c>
-      <c r="B251" s="8" t="s">
+      <c r="B251" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C251" s="10">
+      <c r="C251" s="9">
         <v>850.0</v>
       </c>
-      <c r="D251" s="9">
+      <c r="D251" s="8">
         <v>88706.0</v>
       </c>
-      <c r="E251" s="10">
+      <c r="E251" s="9">
         <v>85.7</v>
       </c>
-      <c r="F251" s="10">
+      <c r="F251" s="9">
         <v>69.28</v>
       </c>
-      <c r="G251" s="10">
+      <c r="G251" s="9">
         <v>77.57</v>
       </c>
-      <c r="H251" s="9">
+      <c r="H251" s="8">
         <v>12681.0</v>
       </c>
       <c r="I251" s="3"/>
@@ -11468,7 +11479,7 @@
       <c r="A252" s="4">
         <v>2019.0</v>
       </c>
-      <c r="B252" s="5" t="s">
+      <c r="B252" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C252" s="7">
@@ -11512,25 +11523,25 @@
       <c r="A253" s="4">
         <v>2019.0</v>
       </c>
-      <c r="B253" s="8" t="s">
+      <c r="B253" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C253" s="10">
+      <c r="C253" s="9">
         <v>835.0</v>
       </c>
-      <c r="D253" s="9">
+      <c r="D253" s="8">
         <v>87235.0</v>
       </c>
-      <c r="E253" s="10">
+      <c r="E253" s="9">
         <v>71.22</v>
       </c>
-      <c r="F253" s="10">
+      <c r="F253" s="9">
         <v>60.24</v>
       </c>
-      <c r="G253" s="10">
+      <c r="G253" s="9">
         <v>71.19</v>
       </c>
-      <c r="H253" s="9">
+      <c r="H253" s="8">
         <v>12697.0</v>
       </c>
       <c r="I253" s="3"/>
@@ -11553,28 +11564,28 @@
       <c r="Z253" s="3"/>
     </row>
     <row r="254">
-      <c r="A254" s="11">
+      <c r="A254" s="10">
         <v>2020.0</v>
       </c>
-      <c r="B254" s="8" t="s">
+      <c r="B254" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C254" s="10">
+      <c r="C254" s="9">
         <v>897.0</v>
       </c>
-      <c r="D254" s="9">
+      <c r="D254" s="8">
         <v>88924.0</v>
       </c>
-      <c r="E254" s="10">
+      <c r="E254" s="9">
         <v>68.76</v>
       </c>
-      <c r="F254" s="10">
+      <c r="F254" s="9">
         <v>56.25</v>
       </c>
-      <c r="G254" s="10">
+      <c r="G254" s="9">
         <v>62.21</v>
       </c>
-      <c r="H254" s="9">
+      <c r="H254" s="8">
         <v>12234.0</v>
       </c>
       <c r="I254" s="3"/>
@@ -11597,10 +11608,10 @@
       <c r="Z254" s="3"/>
     </row>
     <row r="255">
-      <c r="A255" s="11">
+      <c r="A255" s="10">
         <v>2020.0</v>
       </c>
-      <c r="B255" s="5" t="s">
+      <c r="B255" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C255" s="7">
@@ -11641,28 +11652,28 @@
       <c r="Z255" s="3"/>
     </row>
     <row r="256">
-      <c r="A256" s="11">
+      <c r="A256" s="10">
         <v>2020.0</v>
       </c>
-      <c r="B256" s="8" t="s">
+      <c r="B256" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C256" s="10">
+      <c r="C256" s="9">
         <v>708.0</v>
       </c>
-      <c r="D256" s="9">
+      <c r="D256" s="8">
         <v>66299.0</v>
       </c>
-      <c r="E256" s="10">
+      <c r="E256" s="9">
         <v>38.47</v>
       </c>
-      <c r="F256" s="10">
+      <c r="F256" s="9">
         <v>31.23</v>
       </c>
-      <c r="G256" s="10">
+      <c r="G256" s="9">
         <v>30.65</v>
       </c>
-      <c r="H256" s="9">
+      <c r="H256" s="8">
         <v>8181.0</v>
       </c>
       <c r="I256" s="3"/>
@@ -11685,10 +11696,10 @@
       <c r="Z256" s="3"/>
     </row>
     <row r="257">
-      <c r="A257" s="11">
+      <c r="A257" s="10">
         <v>2020.0</v>
       </c>
-      <c r="B257" s="5" t="s">
+      <c r="B257" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C257" s="7">
@@ -11729,28 +11740,28 @@
       <c r="Z257" s="3"/>
     </row>
     <row r="258">
-      <c r="A258" s="11">
+      <c r="A258" s="10">
         <v>2020.0</v>
       </c>
-      <c r="B258" s="8" t="s">
+      <c r="B258" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C258" s="10">
+      <c r="C258" s="9">
         <v>0.0</v>
       </c>
-      <c r="D258" s="10">
+      <c r="D258" s="9">
         <v>0.0</v>
       </c>
-      <c r="E258" s="10">
+      <c r="E258" s="9">
         <v>0.0</v>
       </c>
-      <c r="F258" s="10">
+      <c r="F258" s="9">
         <v>0.0</v>
       </c>
-      <c r="G258" s="10">
+      <c r="G258" s="9">
         <v>0.0</v>
       </c>
-      <c r="H258" s="10">
+      <c r="H258" s="9">
         <v>0.0</v>
       </c>
       <c r="I258" s="3"/>
@@ -11773,10 +11784,10 @@
       <c r="Z258" s="3"/>
     </row>
     <row r="259">
-      <c r="A259" s="11">
+      <c r="A259" s="10">
         <v>2020.0</v>
       </c>
-      <c r="B259" s="5" t="s">
+      <c r="B259" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C259" s="7">
@@ -11817,28 +11828,28 @@
       <c r="Z259" s="3"/>
     </row>
     <row r="260">
-      <c r="A260" s="11">
+      <c r="A260" s="10">
         <v>2020.0</v>
       </c>
-      <c r="B260" s="8" t="s">
+      <c r="B260" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C260" s="10">
+      <c r="C260" s="9">
         <v>446.0</v>
       </c>
-      <c r="D260" s="9">
+      <c r="D260" s="8">
         <v>32456.0</v>
       </c>
-      <c r="E260" s="10">
+      <c r="E260" s="9">
         <v>37.85</v>
       </c>
-      <c r="F260" s="10">
+      <c r="F260" s="9">
         <v>31.19</v>
       </c>
-      <c r="G260" s="10">
+      <c r="G260" s="9">
         <v>31.63</v>
       </c>
-      <c r="H260" s="9">
+      <c r="H260" s="8">
         <v>2348.0</v>
       </c>
       <c r="I260" s="3"/>
@@ -11861,10 +11872,10 @@
       <c r="Z260" s="3"/>
     </row>
     <row r="261">
-      <c r="A261" s="11">
+      <c r="A261" s="10">
         <v>2020.0</v>
       </c>
-      <c r="B261" s="5" t="s">
+      <c r="B261" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C261" s="7">
@@ -11905,28 +11916,28 @@
       <c r="Z261" s="3"/>
     </row>
     <row r="262">
-      <c r="A262" s="11">
+      <c r="A262" s="10">
         <v>2020.0</v>
       </c>
-      <c r="B262" s="8" t="s">
+      <c r="B262" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C262" s="10">
+      <c r="C262" s="9">
         <v>521.0</v>
       </c>
-      <c r="D262" s="9">
+      <c r="D262" s="8">
         <v>48662.0</v>
       </c>
-      <c r="E262" s="10">
+      <c r="E262" s="9">
         <v>27.35</v>
       </c>
-      <c r="F262" s="10">
+      <c r="F262" s="9">
         <v>20.9</v>
       </c>
-      <c r="G262" s="10">
+      <c r="G262" s="9">
         <v>22.77</v>
       </c>
-      <c r="H262" s="9">
+      <c r="H262" s="8">
         <v>3862.0</v>
       </c>
       <c r="I262" s="3"/>
@@ -11949,10 +11960,10 @@
       <c r="Z262" s="3"/>
     </row>
     <row r="263">
-      <c r="A263" s="11">
+      <c r="A263" s="10">
         <v>2020.0</v>
       </c>
-      <c r="B263" s="5" t="s">
+      <c r="B263" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C263" s="7">
@@ -11993,28 +12004,28 @@
       <c r="Z263" s="3"/>
     </row>
     <row r="264">
-      <c r="A264" s="11">
+      <c r="A264" s="10">
         <v>2020.0</v>
       </c>
-      <c r="B264" s="8" t="s">
+      <c r="B264" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C264" s="10">
+      <c r="C264" s="9">
         <v>496.0</v>
       </c>
-      <c r="D264" s="9">
+      <c r="D264" s="8">
         <v>45745.0</v>
       </c>
-      <c r="E264" s="10">
+      <c r="E264" s="9">
         <v>25.56</v>
       </c>
-      <c r="F264" s="10">
+      <c r="F264" s="9">
         <v>18.61</v>
       </c>
-      <c r="G264" s="10">
+      <c r="G264" s="9">
         <v>19.74</v>
       </c>
-      <c r="H264" s="9">
+      <c r="H264" s="8">
         <v>3757.0</v>
       </c>
       <c r="I264" s="3"/>
@@ -12037,10 +12048,10 @@
       <c r="Z264" s="3"/>
     </row>
     <row r="265">
-      <c r="A265" s="11">
+      <c r="A265" s="10">
         <v>2020.0</v>
       </c>
-      <c r="B265" s="5" t="s">
+      <c r="B265" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C265" s="7">
@@ -12084,7 +12095,7 @@
       <c r="A266" s="4">
         <v>2021.0</v>
       </c>
-      <c r="B266" s="5" t="s">
+      <c r="B266" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C266" s="7">
@@ -12128,25 +12139,25 @@
       <c r="A267" s="4">
         <v>2021.0</v>
       </c>
-      <c r="B267" s="8" t="s">
+      <c r="B267" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C267" s="10">
+      <c r="C267" s="9">
         <v>461.0</v>
       </c>
-      <c r="D267" s="9">
+      <c r="D267" s="8">
         <v>48117.0</v>
       </c>
-      <c r="E267" s="10">
+      <c r="E267" s="9">
         <v>29.44</v>
       </c>
-      <c r="F267" s="10">
+      <c r="F267" s="9">
         <v>22.66</v>
       </c>
-      <c r="G267" s="10">
+      <c r="G267" s="9">
         <v>27.22</v>
       </c>
-      <c r="H267" s="9">
+      <c r="H267" s="8">
         <v>4212.0</v>
       </c>
       <c r="I267" s="3"/>
@@ -12172,7 +12183,7 @@
       <c r="A268" s="4">
         <v>2021.0</v>
       </c>
-      <c r="B268" s="5" t="s">
+      <c r="B268" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C268" s="7">
@@ -12216,25 +12227,25 @@
       <c r="A269" s="4">
         <v>2021.0</v>
       </c>
-      <c r="B269" s="8" t="s">
+      <c r="B269" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C269" s="10">
+      <c r="C269" s="9">
         <v>532.0</v>
       </c>
-      <c r="D269" s="9">
+      <c r="D269" s="8">
         <v>57306.0</v>
       </c>
-      <c r="E269" s="10">
+      <c r="E269" s="9">
         <v>30.65</v>
       </c>
-      <c r="F269" s="10">
+      <c r="F269" s="9">
         <v>22.2</v>
       </c>
-      <c r="G269" s="10">
+      <c r="G269" s="9">
         <v>24.78</v>
       </c>
-      <c r="H269" s="9">
+      <c r="H269" s="8">
         <v>5319.0</v>
       </c>
       <c r="I269" s="3"/>
@@ -12260,7 +12271,7 @@
       <c r="A270" s="4">
         <v>2021.0</v>
       </c>
-      <c r="B270" s="5" t="s">
+      <c r="B270" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C270" s="7">
@@ -12304,25 +12315,25 @@
       <c r="A271" s="4">
         <v>2021.0</v>
       </c>
-      <c r="B271" s="8" t="s">
+      <c r="B271" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C271" s="10">
+      <c r="C271" s="9">
         <v>629.0</v>
       </c>
-      <c r="D271" s="9">
+      <c r="D271" s="8">
         <v>71168.0</v>
       </c>
-      <c r="E271" s="10">
+      <c r="E271" s="9">
         <v>41.37</v>
       </c>
-      <c r="F271" s="10">
+      <c r="F271" s="9">
         <v>32.76</v>
       </c>
-      <c r="G271" s="10">
+      <c r="G271" s="9">
         <v>43.65</v>
       </c>
-      <c r="H271" s="9">
+      <c r="H271" s="8">
         <v>6515.0</v>
       </c>
       <c r="I271" s="3"/>
@@ -12348,7 +12359,7 @@
       <c r="A272" s="4">
         <v>2021.0</v>
       </c>
-      <c r="B272" s="5" t="s">
+      <c r="B272" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C272" s="7">
@@ -12392,25 +12403,25 @@
       <c r="A273" s="4">
         <v>2021.0</v>
       </c>
-      <c r="B273" s="8" t="s">
+      <c r="B273" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C273" s="10">
+      <c r="C273" s="9">
         <v>567.0</v>
       </c>
-      <c r="D273" s="9">
+      <c r="D273" s="8">
         <v>72028.0</v>
       </c>
-      <c r="E273" s="10">
+      <c r="E273" s="9">
         <v>42.53</v>
       </c>
-      <c r="F273" s="10">
+      <c r="F273" s="9">
         <v>37.43</v>
       </c>
-      <c r="G273" s="10">
+      <c r="G273" s="9">
         <v>42.26</v>
       </c>
-      <c r="H273" s="9">
+      <c r="H273" s="8">
         <v>7469.0</v>
       </c>
       <c r="I273" s="3"/>
@@ -12436,7 +12447,7 @@
       <c r="A274" s="4">
         <v>2021.0</v>
       </c>
-      <c r="B274" s="5" t="s">
+      <c r="B274" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C274" s="7">
@@ -12480,25 +12491,25 @@
       <c r="A275" s="4">
         <v>2021.0</v>
       </c>
-      <c r="B275" s="8" t="s">
+      <c r="B275" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C275" s="10">
+      <c r="C275" s="9">
         <v>706.0</v>
       </c>
-      <c r="D275" s="9">
+      <c r="D275" s="8">
         <v>85242.0</v>
       </c>
-      <c r="E275" s="10">
+      <c r="E275" s="9">
         <v>67.14</v>
       </c>
-      <c r="F275" s="10">
+      <c r="F275" s="9">
         <v>56.02</v>
       </c>
-      <c r="G275" s="10">
+      <c r="G275" s="9">
         <v>65.91</v>
       </c>
-      <c r="H275" s="9">
+      <c r="H275" s="8">
         <v>9825.0</v>
       </c>
       <c r="I275" s="3"/>
@@ -12524,7 +12535,7 @@
       <c r="A276" s="4">
         <v>2021.0</v>
       </c>
-      <c r="B276" s="5" t="s">
+      <c r="B276" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C276" s="7">
@@ -12568,25 +12579,25 @@
       <c r="A277" s="4">
         <v>2021.0</v>
       </c>
-      <c r="B277" s="8" t="s">
+      <c r="B277" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C277" s="10">
+      <c r="C277" s="9">
         <v>738.0</v>
       </c>
-      <c r="D277" s="9">
+      <c r="D277" s="8">
         <v>87297.0</v>
       </c>
-      <c r="E277" s="10">
+      <c r="E277" s="9">
         <v>53.99</v>
       </c>
-      <c r="F277" s="10">
+      <c r="F277" s="9">
         <v>48.07</v>
       </c>
-      <c r="G277" s="10">
+      <c r="G277" s="9">
         <v>54.4</v>
       </c>
-      <c r="H277" s="9">
+      <c r="H277" s="8">
         <v>10568.0</v>
       </c>
       <c r="I277" s="3"/>
@@ -12609,28 +12620,28 @@
       <c r="Z277" s="3"/>
     </row>
     <row r="278">
-      <c r="A278" s="11">
+      <c r="A278" s="10">
         <v>2022.0</v>
       </c>
-      <c r="B278" s="8" t="s">
+      <c r="B278" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C278" s="10">
+      <c r="C278" s="9">
         <v>767.0</v>
       </c>
-      <c r="D278" s="9">
+      <c r="D278" s="8">
         <v>87039.0</v>
       </c>
-      <c r="E278" s="10">
+      <c r="E278" s="9">
         <v>42.43</v>
       </c>
-      <c r="F278" s="10">
+      <c r="F278" s="9">
         <v>35.73</v>
       </c>
-      <c r="G278" s="10">
+      <c r="G278" s="9">
         <v>45.06</v>
       </c>
-      <c r="H278" s="9">
+      <c r="H278" s="8">
         <v>10294.0</v>
       </c>
       <c r="I278" s="3"/>
@@ -12653,10 +12664,10 @@
       <c r="Z278" s="3"/>
     </row>
     <row r="279">
-      <c r="A279" s="11">
+      <c r="A279" s="10">
         <v>2022.0</v>
       </c>
-      <c r="B279" s="5" t="s">
+      <c r="B279" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C279" s="7">
@@ -12697,28 +12708,28 @@
       <c r="Z279" s="3"/>
     </row>
     <row r="280">
-      <c r="A280" s="11">
+      <c r="A280" s="10">
         <v>2022.0</v>
       </c>
-      <c r="B280" s="8" t="s">
+      <c r="B280" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C280" s="10">
+      <c r="C280" s="9">
         <v>773.0</v>
       </c>
-      <c r="D280" s="9">
+      <c r="D280" s="8">
         <v>87223.0</v>
       </c>
-      <c r="E280" s="10">
+      <c r="E280" s="9">
         <v>64.97</v>
       </c>
-      <c r="F280" s="10">
+      <c r="F280" s="9">
         <v>52.66</v>
       </c>
-      <c r="G280" s="10">
+      <c r="G280" s="9">
         <v>65.09</v>
       </c>
-      <c r="H280" s="9">
+      <c r="H280" s="8">
         <v>10613.0</v>
       </c>
       <c r="I280" s="3"/>
@@ -12741,10 +12752,10 @@
       <c r="Z280" s="3"/>
     </row>
     <row r="281">
-      <c r="A281" s="11">
+      <c r="A281" s="10">
         <v>2022.0</v>
       </c>
-      <c r="B281" s="5" t="s">
+      <c r="B281" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C281" s="7">
@@ -12785,28 +12796,28 @@
       <c r="Z281" s="3"/>
     </row>
     <row r="282">
-      <c r="A282" s="11">
+      <c r="A282" s="10">
         <v>2022.0</v>
       </c>
-      <c r="B282" s="8" t="s">
+      <c r="B282" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C282" s="10">
+      <c r="C282" s="9">
         <v>822.0</v>
       </c>
-      <c r="D282" s="9">
+      <c r="D282" s="8">
         <v>88077.0</v>
       </c>
-      <c r="E282" s="10">
+      <c r="E282" s="9">
         <v>75.52</v>
       </c>
-      <c r="F282" s="10">
+      <c r="F282" s="9">
         <v>60.98</v>
       </c>
-      <c r="G282" s="10">
+      <c r="G282" s="9">
         <v>70.99</v>
       </c>
-      <c r="H282" s="9">
+      <c r="H282" s="8">
         <v>11492.0</v>
       </c>
       <c r="I282" s="3"/>
@@ -12829,10 +12840,10 @@
       <c r="Z282" s="3"/>
     </row>
     <row r="283">
-      <c r="A283" s="11">
+      <c r="A283" s="10">
         <v>2022.0</v>
       </c>
-      <c r="B283" s="5" t="s">
+      <c r="B283" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C283" s="7">
@@ -12873,28 +12884,28 @@
       <c r="Z283" s="3"/>
     </row>
     <row r="284">
-      <c r="A284" s="11">
+      <c r="A284" s="10">
         <v>2022.0</v>
       </c>
-      <c r="B284" s="8" t="s">
+      <c r="B284" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C284" s="10">
+      <c r="C284" s="9">
         <v>781.0</v>
       </c>
-      <c r="D284" s="9">
+      <c r="D284" s="8">
         <v>86943.0</v>
       </c>
-      <c r="E284" s="10">
+      <c r="E284" s="9">
         <v>64.61</v>
       </c>
-      <c r="F284" s="10">
+      <c r="F284" s="9">
         <v>57.19</v>
       </c>
-      <c r="G284" s="10">
+      <c r="G284" s="9">
         <v>58.84</v>
       </c>
-      <c r="H284" s="9">
+      <c r="H284" s="8">
         <v>11520.0</v>
       </c>
       <c r="I284" s="3"/>
@@ -12917,10 +12928,10 @@
       <c r="Z284" s="3"/>
     </row>
     <row r="285">
-      <c r="A285" s="11">
+      <c r="A285" s="10">
         <v>2022.0</v>
       </c>
-      <c r="B285" s="5" t="s">
+      <c r="B285" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C285" s="7">
@@ -12961,28 +12972,28 @@
       <c r="Z285" s="3"/>
     </row>
     <row r="286">
-      <c r="A286" s="11">
+      <c r="A286" s="10">
         <v>2022.0</v>
       </c>
-      <c r="B286" s="8" t="s">
+      <c r="B286" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C286" s="10">
+      <c r="C286" s="9">
         <v>812.0</v>
       </c>
-      <c r="D286" s="9">
+      <c r="D286" s="8">
         <v>88381.0</v>
       </c>
-      <c r="E286" s="10">
+      <c r="E286" s="9">
         <v>76.24</v>
       </c>
-      <c r="F286" s="10">
+      <c r="F286" s="9">
         <v>61.28</v>
       </c>
-      <c r="G286" s="10">
+      <c r="G286" s="9">
         <v>66.35</v>
       </c>
-      <c r="H286" s="9">
+      <c r="H286" s="8">
         <v>11821.0</v>
       </c>
       <c r="I286" s="3"/>
@@ -13005,10 +13016,10 @@
       <c r="Z286" s="3"/>
     </row>
     <row r="287">
-      <c r="A287" s="11">
+      <c r="A287" s="10">
         <v>2022.0</v>
       </c>
-      <c r="B287" s="5" t="s">
+      <c r="B287" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C287" s="7">
@@ -13049,28 +13060,28 @@
       <c r="Z287" s="3"/>
     </row>
     <row r="288">
-      <c r="A288" s="11">
+      <c r="A288" s="10">
         <v>2022.0</v>
       </c>
-      <c r="B288" s="8" t="s">
+      <c r="B288" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C288" s="10">
+      <c r="C288" s="9">
         <v>829.0</v>
       </c>
-      <c r="D288" s="9">
+      <c r="D288" s="8">
         <v>90293.0</v>
       </c>
-      <c r="E288" s="10">
+      <c r="E288" s="9">
         <v>73.95</v>
       </c>
-      <c r="F288" s="10">
+      <c r="F288" s="9">
         <v>57.23</v>
       </c>
-      <c r="G288" s="10">
+      <c r="G288" s="9">
         <v>67.93</v>
       </c>
-      <c r="H288" s="9">
+      <c r="H288" s="8">
         <v>12185.0</v>
       </c>
       <c r="I288" s="3"/>
@@ -13093,10 +13104,10 @@
       <c r="Z288" s="3"/>
     </row>
     <row r="289">
-      <c r="A289" s="11">
+      <c r="A289" s="10">
         <v>2022.0</v>
       </c>
-      <c r="B289" s="5" t="s">
+      <c r="B289" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C289" s="7">
@@ -13140,7 +13151,7 @@
       <c r="A290" s="4">
         <v>2023.0</v>
       </c>
-      <c r="B290" s="5" t="s">
+      <c r="B290" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C290" s="7">
@@ -13184,7 +13195,7 @@
       <c r="A291" s="4">
         <v>2023.0</v>
       </c>
-      <c r="B291" s="8" t="s">
+      <c r="B291" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C291" s="7">
@@ -13228,7 +13239,7 @@
       <c r="A292" s="4">
         <v>2023.0</v>
       </c>
-      <c r="B292" s="5" t="s">
+      <c r="B292" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C292" s="7">
@@ -13272,7 +13283,7 @@
       <c r="A293" s="4">
         <v>2023.0</v>
       </c>
-      <c r="B293" s="8" t="s">
+      <c r="B293" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C293" s="7">
@@ -13316,7 +13327,7 @@
       <c r="A294" s="4">
         <v>2023.0</v>
       </c>
-      <c r="B294" s="5" t="s">
+      <c r="B294" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C294" s="7">
@@ -13360,7 +13371,7 @@
       <c r="A295" s="4">
         <v>2023.0</v>
       </c>
-      <c r="B295" s="8" t="s">
+      <c r="B295" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C295" s="7">
@@ -13404,7 +13415,7 @@
       <c r="A296" s="4">
         <v>2023.0</v>
       </c>
-      <c r="B296" s="5" t="s">
+      <c r="B296" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C296" s="7">
@@ -13448,7 +13459,7 @@
       <c r="A297" s="4">
         <v>2023.0</v>
       </c>
-      <c r="B297" s="8" t="s">
+      <c r="B297" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C297" s="7">
@@ -13492,7 +13503,7 @@
       <c r="A298" s="4">
         <v>2023.0</v>
       </c>
-      <c r="B298" s="5" t="s">
+      <c r="B298" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C298" s="7">
@@ -13536,7 +13547,7 @@
       <c r="A299" s="4">
         <v>2023.0</v>
       </c>
-      <c r="B299" s="8" t="s">
+      <c r="B299" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C299" s="7">
@@ -13580,7 +13591,7 @@
       <c r="A300" s="4">
         <v>2023.0</v>
       </c>
-      <c r="B300" s="5" t="s">
+      <c r="B300" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C300" s="7">
@@ -13621,10 +13632,10 @@
       <c r="Z300" s="3"/>
     </row>
     <row r="301">
-      <c r="A301" s="14">
+      <c r="A301" s="13">
         <v>2023.0</v>
       </c>
-      <c r="B301" s="8" t="s">
+      <c r="B301" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C301" s="7">
